--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>940565.0935726528</v>
+        <v>936051.2230665541</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30071494.53895964</v>
+        <v>30071494.53895963</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7390920.207281978</v>
+        <v>7390920.207281977</v>
       </c>
     </row>
     <row r="9">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>308.9357161983731</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>408.5509258055735</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.55484356332865</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>124.3341510973854</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>64.10272168738172</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>153.0757232160747</v>
@@ -1584,7 +1584,7 @@
         <v>237.1405668778449</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3345352391432</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1593,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.55484356332865</v>
+        <v>58.55484356332864</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>53.30592161523023</v>
+        <v>276.3637965153684</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T15" t="n">
         <v>136.2242063313587</v>
@@ -1767,25 +1767,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.713139123526</v>
       </c>
       <c r="H16" t="n">
-        <v>134.5230953913808</v>
+        <v>129.6801125867666</v>
       </c>
       <c r="I16" t="n">
-        <v>72.26896432086183</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>153.0757232160747</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1405668778449</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.9378417595856</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>76.70809773574361</v>
+        <v>144.1074279499091</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H17" t="n">
         <v>274.7695304478259</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.55484356332865</v>
+        <v>58.55484356332864</v>
       </c>
       <c r="T17" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6141907117556</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T18" t="n">
         <v>136.2242063313587</v>
@@ -2004,13 +2004,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>153.0757232160747</v>
@@ -2058,16 +2058,16 @@
         <v>237.1405668778449</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3345352391432</v>
+        <v>208.6146722804705</v>
       </c>
       <c r="V19" t="n">
-        <v>218.9905275174151</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>362.3296247535462</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -2095,10 +2095,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3310518139933</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>111.8607651785591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T21" t="n">
         <v>136.2242063313587</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>158.4030731384652</v>
       </c>
       <c r="G22" t="n">
-        <v>156.1140114287682</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>72.26896432086183</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>153.0757232160747</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1405668778449</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>256.3584553791868</v>
+        <v>362.3296247535457</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6141907117556</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>92.06206970855649</v>
       </c>
       <c r="H24" t="n">
-        <v>42.69029760379511</v>
+        <v>42.6902976037951</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T24" t="n">
         <v>136.2242063313587</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>5.327349922390223</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.26896432086183</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>152.5938234339234</v>
+        <v>153.0757232160747</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1405668778449</v>
       </c>
       <c r="U25" t="n">
         <v>277.3345352391432</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>254.5776262807959</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -2566,13 +2566,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.55484356332862</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,10 +2614,10 @@
         <v>255.6141907117556</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>115.119009745942</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>92.06206970855649</v>
       </c>
       <c r="H27" t="n">
-        <v>42.69029760379511</v>
+        <v>42.6902976037951</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T27" t="n">
         <v>136.2242063313587</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>29.15432920364999</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.713139123526</v>
@@ -2733,7 +2733,7 @@
         <v>134.5230953913808</v>
       </c>
       <c r="I28" t="n">
-        <v>72.26896432086183</v>
+        <v>72.26896432086181</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>153.0757232160747</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1405668778449</v>
       </c>
       <c r="U28" t="n">
         <v>277.3345352391432</v>
@@ -2778,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>21.12820659207923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>138.6056029136717</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.55484356332862</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6141907117556</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>257.5377966806743</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -2888,7 +2888,7 @@
         <v>92.06206970855649</v>
       </c>
       <c r="H30" t="n">
-        <v>42.69029760379511</v>
+        <v>42.6902976037951</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T30" t="n">
         <v>136.2242063313587</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>87.41382203884675</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2961,16 +2961,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H31" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.26896432086183</v>
+        <v>17.45419015801811</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.943533196782496</v>
+        <v>6.943533196782475</v>
       </c>
       <c r="S31" t="n">
         <v>153.0757232160747</v>
@@ -3006,16 +3006,16 @@
         <v>237.1405668778449</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3345352391432</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>303.7747811902169</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.55484356332862</v>
       </c>
       <c r="T32" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6141907117556</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>315.6589373322371</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>92.06206970855649</v>
       </c>
       <c r="H33" t="n">
-        <v>42.69029760379511</v>
+        <v>42.6902976037951</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T33" t="n">
         <v>136.2242063313587</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>98.20676463728077</v>
       </c>
       <c r="G34" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>56.47615501384243</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I34" t="n">
-        <v>72.26896432086183</v>
+        <v>72.26896432086181</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>153.0757232160747</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>362.3296247535453</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3277,7 +3277,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>367.5526840974252</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>92.06206970855649</v>
       </c>
       <c r="H36" t="n">
-        <v>42.69029760379511</v>
+        <v>42.6902976037951</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T36" t="n">
         <v>136.2242063313587</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>96.3676898946195</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>53.04876018987958</v>
+        <v>72.26896432086181</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.943533196782496</v>
+        <v>6.943533196782475</v>
       </c>
       <c r="S37" t="n">
         <v>153.0757232160747</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1405668778449</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>394.5762875248944</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.55484356332865</v>
+        <v>58.55484356332862</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>55.51401109272262</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>92.06206970855649</v>
       </c>
       <c r="H39" t="n">
-        <v>42.69029760379511</v>
+        <v>42.6902976037951</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T39" t="n">
         <v>136.2242063313587</v>
@@ -3666,19 +3666,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>108.5702528726999</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>158.4030731384652</v>
       </c>
       <c r="G40" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>153.0757232160747</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1405668778449</v>
@@ -3720,16 +3720,16 @@
         <v>277.3345352391432</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>303.7747811902178</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.55484356332862</v>
       </c>
       <c r="T41" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6141907117556</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.11246622829027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>92.06206970855649</v>
       </c>
       <c r="H42" t="n">
-        <v>42.69029760379512</v>
+        <v>42.6902976037951</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T42" t="n">
         <v>136.2242063313587</v>
@@ -3900,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.26896432086181</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>153.0757232160747</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1405668778449</v>
       </c>
       <c r="U43" t="n">
         <v>277.3345352391432</v>
       </c>
       <c r="V43" t="n">
-        <v>264.7238068601466</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>9.293839066666589</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>392.5339112377215</v>
+        <v>324.8709948381266</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.55484356332862</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>92.06206970855649</v>
       </c>
       <c r="H45" t="n">
-        <v>42.69029760379512</v>
+        <v>42.6902976037951</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T45" t="n">
         <v>136.2242063313587</v>
@@ -4137,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>50.66521596779747</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.713139123526</v>
+        <v>69.4235920898266</v>
       </c>
       <c r="H46" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.26896432086183</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>153.0757232160747</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1307.744841905765</v>
+        <v>871.4447970116229</v>
       </c>
       <c r="C11" t="n">
-        <v>880.8441119190657</v>
+        <v>444.544067024923</v>
       </c>
       <c r="D11" t="n">
-        <v>468.166409085153</v>
+        <v>444.544067024923</v>
       </c>
       <c r="E11" t="n">
-        <v>42.18946923301057</v>
+        <v>444.544067024923</v>
       </c>
       <c r="F11" t="n">
-        <v>42.18946923301057</v>
+        <v>444.544067024923</v>
       </c>
       <c r="G11" t="n">
         <v>42.18946923301057</v>
@@ -5068,25 +5068,25 @@
         <v>2109.473461650528</v>
       </c>
       <c r="S11" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="T11" t="n">
-        <v>2109.473461650528</v>
+        <v>1838.088577933628</v>
       </c>
       <c r="U11" t="n">
-        <v>2109.473461650528</v>
+        <v>1579.892425699532</v>
       </c>
       <c r="V11" t="n">
-        <v>2109.473461650528</v>
+        <v>1579.892425699532</v>
       </c>
       <c r="W11" t="n">
-        <v>1713.082111950875</v>
+        <v>1183.501075999879</v>
       </c>
       <c r="X11" t="n">
-        <v>1713.082111950875</v>
+        <v>1183.501075999879</v>
       </c>
       <c r="Y11" t="n">
-        <v>1307.744841905765</v>
+        <v>1183.501075999879</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>139.922153475317</v>
       </c>
       <c r="K12" t="n">
-        <v>285.7895037104463</v>
+        <v>568.1683960852992</v>
       </c>
       <c r="L12" t="n">
-        <v>489.4535701883733</v>
+        <v>771.8324625632262</v>
       </c>
       <c r="M12" t="n">
-        <v>730.2654206326901</v>
+        <v>1012.644313007543</v>
       </c>
       <c r="N12" t="n">
-        <v>979.7922489990522</v>
+        <v>1262.171141373905</v>
       </c>
       <c r="O12" t="n">
-        <v>1204.449831211625</v>
+        <v>1486.828723586478</v>
       </c>
       <c r="P12" t="n">
         <v>1663.994616209847</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>681.4361888605749</v>
+        <v>916.1878250951385</v>
       </c>
       <c r="C13" t="n">
-        <v>509.4636257394909</v>
+        <v>744.2152619740544</v>
       </c>
       <c r="D13" t="n">
-        <v>346.1468528662616</v>
+        <v>618.6252103605339</v>
       </c>
       <c r="E13" t="n">
-        <v>179.9386470191152</v>
+        <v>452.4170045133874</v>
       </c>
       <c r="F13" t="n">
-        <v>179.9386470191152</v>
+        <v>280.5552302879478</v>
       </c>
       <c r="G13" t="n">
         <v>115.188423092467</v>
@@ -5199,52 +5199,52 @@
         <v>42.18946923301057</v>
       </c>
       <c r="J13" t="n">
-        <v>161.3628905938623</v>
+        <v>83.44117394564142</v>
       </c>
       <c r="K13" t="n">
-        <v>241.9705096995575</v>
+        <v>164.0487930513366</v>
       </c>
       <c r="L13" t="n">
-        <v>726.3690956406915</v>
+        <v>465.5902221471487</v>
       </c>
       <c r="M13" t="n">
-        <v>840.7796431371921</v>
+        <v>987.6849039056544</v>
       </c>
       <c r="N13" t="n">
-        <v>1034.555093153226</v>
+        <v>1498.684795104432</v>
       </c>
       <c r="O13" t="n">
-        <v>1513.299820018577</v>
+        <v>1977.429521969783</v>
       </c>
       <c r="P13" t="n">
-        <v>1909.417685288886</v>
+        <v>2060.791182666785</v>
       </c>
       <c r="Q13" t="n">
         <v>2109.473461650528</v>
       </c>
       <c r="R13" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="S13" t="n">
-        <v>1947.837849112289</v>
+        <v>1954.851519008029</v>
       </c>
       <c r="T13" t="n">
-        <v>1708.301922973052</v>
+        <v>1715.315592868792</v>
       </c>
       <c r="U13" t="n">
-        <v>1428.166028792099</v>
+        <v>1715.315592868792</v>
       </c>
       <c r="V13" t="n">
-        <v>1146.454561400128</v>
+        <v>1433.60412547682</v>
       </c>
       <c r="W13" t="n">
-        <v>871.6021575726406</v>
+        <v>1158.751721649333</v>
       </c>
       <c r="X13" t="n">
-        <v>871.6021575726406</v>
+        <v>916.1878250951385</v>
       </c>
       <c r="Y13" t="n">
-        <v>871.6021575726406</v>
+        <v>916.1878250951385</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1996.482789752994</v>
+        <v>1147.213229085852</v>
       </c>
       <c r="C14" t="n">
-        <v>1996.482789752994</v>
+        <v>1147.213229085852</v>
       </c>
       <c r="D14" t="n">
-        <v>1573.190168937994</v>
+        <v>1147.213229085852</v>
       </c>
       <c r="E14" t="n">
         <v>1147.213229085852</v>
@@ -5275,16 +5275,16 @@
         <v>42.18946923301057</v>
       </c>
       <c r="I14" t="n">
-        <v>82.97064708758364</v>
+        <v>82.97064708758353</v>
       </c>
       <c r="J14" t="n">
-        <v>218.9221049399276</v>
+        <v>218.9221049399271</v>
       </c>
       <c r="K14" t="n">
-        <v>430.923107695718</v>
+        <v>430.9231076957176</v>
       </c>
       <c r="L14" t="n">
-        <v>699.9256343271981</v>
+        <v>699.9256343271977</v>
       </c>
       <c r="M14" t="n">
         <v>1004.389060027289</v>
@@ -5299,7 +5299,7 @@
         <v>1847.70796765412</v>
       </c>
       <c r="Q14" t="n">
-        <v>2021.979826295251</v>
+        <v>2021.97982629525</v>
       </c>
       <c r="R14" t="n">
         <v>2109.473461650528</v>
@@ -5308,22 +5308,22 @@
         <v>2050.327155020903</v>
       </c>
       <c r="T14" t="n">
-        <v>2050.327155020903</v>
+        <v>1838.088577933628</v>
       </c>
       <c r="U14" t="n">
-        <v>2050.327155020903</v>
+        <v>1838.088577933628</v>
       </c>
       <c r="V14" t="n">
-        <v>1996.482789752994</v>
+        <v>1558.933227918105</v>
       </c>
       <c r="W14" t="n">
-        <v>1996.482789752994</v>
+        <v>1558.933227918105</v>
       </c>
       <c r="X14" t="n">
-        <v>1996.482789752994</v>
+        <v>1147.213229085852</v>
       </c>
       <c r="Y14" t="n">
-        <v>1996.482789752994</v>
+        <v>1147.213229085852</v>
       </c>
     </row>
     <row r="15">
@@ -5354,16 +5354,16 @@
         <v>42.18946923301057</v>
       </c>
       <c r="I15" t="n">
-        <v>62.00829666969776</v>
+        <v>62.00829666969777</v>
       </c>
       <c r="J15" t="n">
-        <v>139.922153475317</v>
+        <v>139.9221534753171</v>
       </c>
       <c r="K15" t="n">
-        <v>568.1683960852992</v>
+        <v>568.1683960852989</v>
       </c>
       <c r="L15" t="n">
-        <v>771.8324625632262</v>
+        <v>771.8324625632259</v>
       </c>
       <c r="M15" t="n">
         <v>1012.644313007543</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>754.5071248972822</v>
+        <v>840.0438309838569</v>
       </c>
       <c r="C16" t="n">
-        <v>754.5071248972822</v>
+        <v>668.0712678627729</v>
       </c>
       <c r="D16" t="n">
-        <v>754.5071248972822</v>
+        <v>504.7544949895436</v>
       </c>
       <c r="E16" t="n">
-        <v>588.2989190501357</v>
+        <v>338.5462891423971</v>
       </c>
       <c r="F16" t="n">
-        <v>416.4371448246962</v>
+        <v>338.5462891423971</v>
       </c>
       <c r="G16" t="n">
-        <v>251.0703376292153</v>
+        <v>173.1794819469162</v>
       </c>
       <c r="H16" t="n">
-        <v>115.188423092467</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="I16" t="n">
         <v>42.18946923301057</v>
       </c>
       <c r="J16" t="n">
-        <v>161.3628905938623</v>
+        <v>83.44117394564144</v>
       </c>
       <c r="K16" t="n">
-        <v>241.9705096995575</v>
+        <v>164.0487930513367</v>
       </c>
       <c r="L16" t="n">
-        <v>349.9802020495266</v>
+        <v>465.5902221471487</v>
       </c>
       <c r="M16" t="n">
-        <v>872.0748838080324</v>
+        <v>987.6849039056544</v>
       </c>
       <c r="N16" t="n">
-        <v>1034.555093153226</v>
+        <v>1498.684795104432</v>
       </c>
       <c r="O16" t="n">
-        <v>1513.299820018577</v>
+        <v>1977.429521969783</v>
       </c>
       <c r="P16" t="n">
-        <v>1909.417685288886</v>
+        <v>2060.791182666785</v>
       </c>
       <c r="Q16" t="n">
         <v>2109.473461650528</v>
@@ -5463,25 +5463,25 @@
         <v>2109.473461650528</v>
       </c>
       <c r="S16" t="n">
-        <v>1954.851519008029</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="T16" t="n">
-        <v>1715.315592868792</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="U16" t="n">
-        <v>1501.236964828806</v>
+        <v>1829.337567469576</v>
       </c>
       <c r="V16" t="n">
-        <v>1219.525497436835</v>
+        <v>1547.626100077604</v>
       </c>
       <c r="W16" t="n">
-        <v>944.6730936093479</v>
+        <v>1272.773696250117</v>
       </c>
       <c r="X16" t="n">
-        <v>944.6730936093479</v>
+        <v>1030.209799695923</v>
       </c>
       <c r="Y16" t="n">
-        <v>944.6730936093479</v>
+        <v>1030.209799695923</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>397.2173764891414</v>
+        <v>867.6521058105138</v>
       </c>
       <c r="C17" t="n">
-        <v>397.2173764891414</v>
+        <v>867.6521058105138</v>
       </c>
       <c r="D17" t="n">
-        <v>319.7344494833398</v>
+        <v>722.0890472752521</v>
       </c>
       <c r="E17" t="n">
-        <v>319.7344494833398</v>
+        <v>722.0890472752521</v>
       </c>
       <c r="F17" t="n">
-        <v>319.7344494833398</v>
+        <v>722.0890472752521</v>
       </c>
       <c r="G17" t="n">
         <v>319.7344494833398</v>
       </c>
       <c r="H17" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I17" t="n">
         <v>82.97064708758353</v>
@@ -5518,13 +5518,13 @@
         <v>218.9221049399275</v>
       </c>
       <c r="K17" t="n">
-        <v>430.9231076957179</v>
+        <v>430.923107695718</v>
       </c>
       <c r="L17" t="n">
-        <v>699.9256343271979</v>
+        <v>699.9256343271982</v>
       </c>
       <c r="M17" t="n">
-        <v>1004.389060027289</v>
+        <v>1004.38906002729</v>
       </c>
       <c r="N17" t="n">
         <v>1314.52876612348</v>
@@ -5533,34 +5533,34 @@
         <v>1605.217916110744</v>
       </c>
       <c r="P17" t="n">
-        <v>1847.70796765412</v>
+        <v>1847.707967654121</v>
       </c>
       <c r="Q17" t="n">
         <v>2021.979826295251</v>
       </c>
       <c r="R17" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S17" t="n">
-        <v>2050.327155020903</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="T17" t="n">
-        <v>1838.088577933628</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="U17" t="n">
-        <v>1579.892425699532</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="V17" t="n">
-        <v>1222.403010825781</v>
+        <v>1692.837740147154</v>
       </c>
       <c r="W17" t="n">
-        <v>1222.403010825781</v>
+        <v>1692.837740147154</v>
       </c>
       <c r="X17" t="n">
-        <v>1222.403010825781</v>
+        <v>1692.837740147154</v>
       </c>
       <c r="Y17" t="n">
-        <v>817.0657407806715</v>
+        <v>1287.500470102044</v>
       </c>
     </row>
     <row r="18">
@@ -5585,31 +5585,31 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G18" t="n">
-        <v>85.31098196411673</v>
+        <v>85.31098196411676</v>
       </c>
       <c r="H18" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I18" t="n">
-        <v>85.46560251410961</v>
+        <v>85.46560251410963</v>
       </c>
       <c r="J18" t="n">
-        <v>163.3794593197289</v>
+        <v>316.8455455652636</v>
       </c>
       <c r="K18" t="n">
-        <v>309.2468095548581</v>
+        <v>462.7128958003929</v>
       </c>
       <c r="L18" t="n">
-        <v>512.9108760327852</v>
+        <v>666.3769622783199</v>
       </c>
       <c r="M18" t="n">
-        <v>753.7227264771019</v>
+        <v>907.1888127226367</v>
       </c>
       <c r="N18" t="n">
-        <v>1003.249554843464</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O18" t="n">
-        <v>1227.907137056037</v>
+        <v>1381.373223301572</v>
       </c>
       <c r="P18" t="n">
         <v>1558.539115924941</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.797507032139</v>
+        <v>515.2999651906794</v>
       </c>
       <c r="C19" t="n">
-        <v>844.8249439110551</v>
+        <v>515.2999651906794</v>
       </c>
       <c r="D19" t="n">
-        <v>681.5081710378258</v>
+        <v>515.2999651906794</v>
       </c>
       <c r="E19" t="n">
         <v>515.2999651906794</v>
@@ -5667,58 +5667,58 @@
         <v>178.0713837697589</v>
       </c>
       <c r="H19" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I19" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="J19" t="n">
         <v>161.3628905938623</v>
       </c>
       <c r="K19" t="n">
-        <v>241.9705096995575</v>
+        <v>474.1524887365933</v>
       </c>
       <c r="L19" t="n">
-        <v>349.9802020495266</v>
+        <v>958.5510746777275</v>
       </c>
       <c r="M19" t="n">
-        <v>872.0748838080324</v>
+        <v>1072.961622174228</v>
       </c>
       <c r="N19" t="n">
-        <v>1383.07477500681</v>
+        <v>1185.928590531126</v>
       </c>
       <c r="O19" t="n">
-        <v>1826.056024591884</v>
+        <v>1664.673317396476</v>
       </c>
       <c r="P19" t="n">
-        <v>1909.417685288886</v>
+        <v>2060.791182666786</v>
       </c>
       <c r="Q19" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="R19" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S19" t="n">
-        <v>1947.837849112289</v>
+        <v>1954.85151900803</v>
       </c>
       <c r="T19" t="n">
-        <v>1708.301922973052</v>
+        <v>1715.315592868792</v>
       </c>
       <c r="U19" t="n">
-        <v>1428.166028792099</v>
+        <v>1504.593701676398</v>
       </c>
       <c r="V19" t="n">
-        <v>1206.963475744205</v>
+        <v>1222.882234284427</v>
       </c>
       <c r="W19" t="n">
-        <v>1206.963475744205</v>
+        <v>948.02983045694</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.963475744205</v>
+        <v>705.4659339027451</v>
       </c>
       <c r="Y19" t="n">
-        <v>1206.963475744205</v>
+        <v>705.4659339027451</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1996.482789752994</v>
+        <v>1743.483941697452</v>
       </c>
       <c r="C20" t="n">
-        <v>1996.482789752994</v>
+        <v>1316.583211710752</v>
       </c>
       <c r="D20" t="n">
-        <v>1573.190168937994</v>
+        <v>893.2905908957528</v>
       </c>
       <c r="E20" t="n">
-        <v>1147.213229085852</v>
+        <v>467.3136510436104</v>
       </c>
       <c r="F20" t="n">
-        <v>722.0890472752521</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="G20" t="n">
-        <v>319.7344494833398</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="H20" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I20" t="n">
-        <v>82.97064708758364</v>
+        <v>82.97064708758387</v>
       </c>
       <c r="J20" t="n">
-        <v>218.9221049399276</v>
+        <v>218.9221049399279</v>
       </c>
       <c r="K20" t="n">
-        <v>430.923107695718</v>
+        <v>430.9231076957184</v>
       </c>
       <c r="L20" t="n">
-        <v>699.9256343271981</v>
+        <v>699.9256343271984</v>
       </c>
       <c r="M20" t="n">
-        <v>1004.389060027289</v>
+        <v>1004.38906002729</v>
       </c>
       <c r="N20" t="n">
         <v>1314.52876612348</v>
@@ -5776,28 +5776,28 @@
         <v>2021.979826295251</v>
       </c>
       <c r="R20" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S20" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="T20" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="U20" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="V20" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="W20" t="n">
-        <v>1996.482789752994</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="X20" t="n">
-        <v>1996.482789752994</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="Y20" t="n">
-        <v>1996.482789752994</v>
+        <v>2109.473461650529</v>
       </c>
     </row>
     <row r="21">
@@ -5822,25 +5822,25 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G21" t="n">
-        <v>85.31098196411673</v>
+        <v>85.31098196411676</v>
       </c>
       <c r="H21" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I21" t="n">
-        <v>62.00829666969776</v>
+        <v>85.46560251410963</v>
       </c>
       <c r="J21" t="n">
-        <v>139.922153475317</v>
+        <v>422.3010458501697</v>
       </c>
       <c r="K21" t="n">
-        <v>285.7895037104463</v>
+        <v>568.1683960852989</v>
       </c>
       <c r="L21" t="n">
-        <v>489.4535701883733</v>
+        <v>771.8324625632259</v>
       </c>
       <c r="M21" t="n">
-        <v>1011.548251946879</v>
+        <v>1012.644313007543</v>
       </c>
       <c r="N21" t="n">
         <v>1262.171141373905</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>774.3768855690462</v>
+        <v>374.1651365343625</v>
       </c>
       <c r="C22" t="n">
-        <v>602.4043224479622</v>
+        <v>202.1925734132785</v>
       </c>
       <c r="D22" t="n">
-        <v>439.0875495747329</v>
+        <v>202.1925734132785</v>
       </c>
       <c r="E22" t="n">
-        <v>272.8793437275864</v>
+        <v>202.1925734132785</v>
       </c>
       <c r="F22" t="n">
-        <v>272.8793437275864</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="G22" t="n">
-        <v>115.188423092467</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="H22" t="n">
-        <v>115.188423092467</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I22" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="J22" t="n">
-        <v>161.3628905938623</v>
+        <v>83.44117394564145</v>
       </c>
       <c r="K22" t="n">
-        <v>241.9705096995575</v>
+        <v>411.3314021653588</v>
       </c>
       <c r="L22" t="n">
-        <v>726.3690956406915</v>
+        <v>895.7299881064929</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.463777399197</v>
+        <v>1417.824669864999</v>
       </c>
       <c r="N22" t="n">
-        <v>1361.430745756095</v>
+        <v>1530.791638221897</v>
       </c>
       <c r="O22" t="n">
         <v>1664.673317396476</v>
       </c>
       <c r="P22" t="n">
-        <v>2060.791182666785</v>
+        <v>2060.791182666786</v>
       </c>
       <c r="Q22" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="R22" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S22" t="n">
-        <v>1947.837849112289</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="T22" t="n">
-        <v>1708.301922973052</v>
+        <v>1869.937535511292</v>
       </c>
       <c r="U22" t="n">
-        <v>1708.301922973052</v>
+        <v>1589.801641330339</v>
       </c>
       <c r="V22" t="n">
-        <v>1708.301922973052</v>
+        <v>1308.090173938368</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.449519145565</v>
+        <v>1033.237770110881</v>
       </c>
       <c r="X22" t="n">
-        <v>1190.88562259137</v>
+        <v>790.6738735566861</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.5428542811119</v>
+        <v>564.3311052464281</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>319.7344494833398</v>
+        <v>1743.483941697452</v>
       </c>
       <c r="C23" t="n">
-        <v>319.7344494833398</v>
+        <v>1316.583211710752</v>
       </c>
       <c r="D23" t="n">
-        <v>319.7344494833398</v>
+        <v>893.2905908957528</v>
       </c>
       <c r="E23" t="n">
-        <v>319.7344494833398</v>
+        <v>467.3136510436104</v>
       </c>
       <c r="F23" t="n">
-        <v>319.7344494833398</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="G23" t="n">
-        <v>319.7344494833398</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="H23" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I23" t="n">
-        <v>82.97064708758364</v>
+        <v>82.97064708758376</v>
       </c>
       <c r="J23" t="n">
-        <v>218.9221049399276</v>
+        <v>218.9221049399278</v>
       </c>
       <c r="K23" t="n">
-        <v>430.923107695718</v>
+        <v>430.9231076957183</v>
       </c>
       <c r="L23" t="n">
-        <v>699.9256343271981</v>
+        <v>699.9256343271985</v>
       </c>
       <c r="M23" t="n">
         <v>1004.389060027289</v>
@@ -6013,28 +6013,28 @@
         <v>2021.979826295251</v>
       </c>
       <c r="R23" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S23" t="n">
-        <v>2050.327155020903</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="T23" t="n">
-        <v>2050.327155020903</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="U23" t="n">
-        <v>1792.131002786807</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="V23" t="n">
-        <v>1792.131002786807</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="W23" t="n">
-        <v>1395.739653087154</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="X23" t="n">
-        <v>984.0196542549008</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="Y23" t="n">
-        <v>578.6823842097912</v>
+        <v>2109.473461650529</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>85.31098196411673</v>
       </c>
       <c r="H24" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I24" t="n">
-        <v>62.00829666969776</v>
+        <v>85.46560251410962</v>
       </c>
       <c r="J24" t="n">
-        <v>139.922153475317</v>
+        <v>163.3794593197289</v>
       </c>
       <c r="K24" t="n">
-        <v>285.7895037104463</v>
+        <v>309.2468095548583</v>
       </c>
       <c r="L24" t="n">
-        <v>489.4535701883733</v>
+        <v>512.9108760327854</v>
       </c>
       <c r="M24" t="n">
-        <v>730.2654206326901</v>
+        <v>753.7227264771022</v>
       </c>
       <c r="N24" t="n">
-        <v>979.7922489990522</v>
+        <v>1003.249554843464</v>
       </c>
       <c r="O24" t="n">
-        <v>1204.449831211625</v>
+        <v>1227.907137056038</v>
       </c>
       <c r="P24" t="n">
-        <v>1381.615723834994</v>
+        <v>1405.073029679407</v>
       </c>
       <c r="Q24" t="n">
         <v>1774.31345419543</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>924.4296536961147</v>
+        <v>219.5431938918625</v>
       </c>
       <c r="C25" t="n">
-        <v>752.4570905750306</v>
+        <v>47.57063077077848</v>
       </c>
       <c r="D25" t="n">
-        <v>589.1403177018013</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="E25" t="n">
-        <v>422.9321118546549</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="F25" t="n">
-        <v>251.0703376292153</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="G25" t="n">
-        <v>251.0703376292153</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="H25" t="n">
-        <v>115.188423092467</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I25" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="J25" t="n">
-        <v>83.44117394564142</v>
+        <v>83.44117394564145</v>
       </c>
       <c r="K25" t="n">
-        <v>411.3314021653587</v>
+        <v>411.3314021653588</v>
       </c>
       <c r="L25" t="n">
-        <v>895.7299881064928</v>
+        <v>895.7299881064929</v>
       </c>
       <c r="M25" t="n">
-        <v>1299.290449099532</v>
+        <v>1417.824669864999</v>
       </c>
       <c r="N25" t="n">
-        <v>1412.257417456429</v>
+        <v>1530.791638221897</v>
       </c>
       <c r="O25" t="n">
-        <v>1513.299820018577</v>
+        <v>1631.834040784044</v>
       </c>
       <c r="P25" t="n">
-        <v>1909.417685288886</v>
+        <v>2027.951906054353</v>
       </c>
       <c r="Q25" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="R25" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S25" t="n">
-        <v>1948.324616569007</v>
+        <v>1954.851519008029</v>
       </c>
       <c r="T25" t="n">
-        <v>1948.324616569007</v>
+        <v>1715.315592868792</v>
       </c>
       <c r="U25" t="n">
-        <v>1668.188722388054</v>
+        <v>1435.179698687839</v>
       </c>
       <c r="V25" t="n">
-        <v>1668.188722388054</v>
+        <v>1153.468231295868</v>
       </c>
       <c r="W25" t="n">
-        <v>1393.336318560567</v>
+        <v>878.615827468381</v>
       </c>
       <c r="X25" t="n">
-        <v>1150.772422006373</v>
+        <v>636.0519309141861</v>
       </c>
       <c r="Y25" t="n">
-        <v>924.4296536961147</v>
+        <v>409.7091626039281</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1851.277309416431</v>
+        <v>1318.359759886853</v>
       </c>
       <c r="C26" t="n">
-        <v>1594.128191961082</v>
+        <v>891.4590299001527</v>
       </c>
       <c r="D26" t="n">
-        <v>1170.835571146082</v>
+        <v>468.166409085153</v>
       </c>
       <c r="E26" t="n">
-        <v>744.8586312939397</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="F26" t="n">
-        <v>319.7344494833398</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="G26" t="n">
-        <v>319.7344494833398</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="H26" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I26" t="n">
-        <v>82.97064708758364</v>
+        <v>82.97064708758367</v>
       </c>
       <c r="J26" t="n">
-        <v>218.9221049399276</v>
+        <v>218.922104939927</v>
       </c>
       <c r="K26" t="n">
-        <v>430.923107695718</v>
+        <v>430.9231076957175</v>
       </c>
       <c r="L26" t="n">
-        <v>699.9256343271981</v>
+        <v>699.9256343271977</v>
       </c>
       <c r="M26" t="n">
         <v>1004.389060027289</v>
       </c>
       <c r="N26" t="n">
-        <v>1314.528766123479</v>
+        <v>1314.52876612348</v>
       </c>
       <c r="O26" t="n">
-        <v>1605.217916110743</v>
+        <v>1605.217916110744</v>
       </c>
       <c r="P26" t="n">
-        <v>1847.707967654119</v>
+        <v>1847.70796765412</v>
       </c>
       <c r="Q26" t="n">
-        <v>2021.97982629525</v>
+        <v>2021.979826295251</v>
       </c>
       <c r="R26" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S26" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="T26" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="U26" t="n">
-        <v>1851.277309416431</v>
+        <v>1792.131002786807</v>
       </c>
       <c r="V26" t="n">
-        <v>1851.277309416431</v>
+        <v>1434.641587913057</v>
       </c>
       <c r="W26" t="n">
-        <v>1851.277309416431</v>
+        <v>1318.359759886853</v>
       </c>
       <c r="X26" t="n">
-        <v>1851.277309416431</v>
+        <v>1318.359759886853</v>
       </c>
       <c r="Y26" t="n">
-        <v>1851.277309416431</v>
+        <v>1318.359759886853</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>85.31098196411673</v>
       </c>
       <c r="H27" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I27" t="n">
-        <v>62.00829666969776</v>
+        <v>85.46560251410962</v>
       </c>
       <c r="J27" t="n">
-        <v>139.922153475317</v>
+        <v>316.845545565263</v>
       </c>
       <c r="K27" t="n">
-        <v>285.7895037104463</v>
+        <v>462.7128958003924</v>
       </c>
       <c r="L27" t="n">
-        <v>489.4535701883733</v>
+        <v>666.3769622783195</v>
       </c>
       <c r="M27" t="n">
-        <v>730.2654206326901</v>
+        <v>907.1888127226364</v>
       </c>
       <c r="N27" t="n">
-        <v>979.7922489990522</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O27" t="n">
-        <v>1204.449831211625</v>
+        <v>1381.373223301572</v>
       </c>
       <c r="P27" t="n">
-        <v>1381.615723834994</v>
+        <v>1558.539115924941</v>
       </c>
       <c r="Q27" t="n">
         <v>1668.857953910524</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1089.796460891595</v>
+        <v>445.8859622021204</v>
       </c>
       <c r="C28" t="n">
-        <v>917.8238977705115</v>
+        <v>445.8859622021204</v>
       </c>
       <c r="D28" t="n">
-        <v>754.5071248972822</v>
+        <v>416.4371448246962</v>
       </c>
       <c r="E28" t="n">
-        <v>588.2989190501357</v>
+        <v>416.4371448246962</v>
       </c>
       <c r="F28" t="n">
         <v>416.4371448246962</v>
@@ -6381,55 +6381,55 @@
         <v>115.188423092467</v>
       </c>
       <c r="I28" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="J28" t="n">
         <v>161.3628905938623</v>
       </c>
       <c r="K28" t="n">
-        <v>241.9705096995575</v>
+        <v>241.9705096995576</v>
       </c>
       <c r="L28" t="n">
-        <v>349.9802020495266</v>
+        <v>465.5902221471489</v>
       </c>
       <c r="M28" t="n">
-        <v>872.0748838080323</v>
+        <v>987.6849039056548</v>
       </c>
       <c r="N28" t="n">
-        <v>1034.555093153225</v>
+        <v>1498.684795104433</v>
       </c>
       <c r="O28" t="n">
-        <v>1513.299820018576</v>
+        <v>1977.429521969784</v>
       </c>
       <c r="P28" t="n">
-        <v>1909.417685288886</v>
+        <v>2060.791182666786</v>
       </c>
       <c r="Q28" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="R28" t="n">
-        <v>2102.459791754788</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S28" t="n">
-        <v>1947.837849112288</v>
+        <v>1954.851519008029</v>
       </c>
       <c r="T28" t="n">
-        <v>1947.837849112288</v>
+        <v>1715.315592868792</v>
       </c>
       <c r="U28" t="n">
-        <v>1667.701954931336</v>
+        <v>1435.179698687839</v>
       </c>
       <c r="V28" t="n">
-        <v>1385.990487539364</v>
+        <v>1153.468231295868</v>
       </c>
       <c r="W28" t="n">
-        <v>1111.138083711877</v>
+        <v>878.615827468381</v>
       </c>
       <c r="X28" t="n">
-        <v>1111.138083711877</v>
+        <v>636.0519309141861</v>
       </c>
       <c r="Y28" t="n">
-        <v>1089.796460891595</v>
+        <v>636.0519309141861</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1034.220040539069</v>
+        <v>1172.612119322182</v>
       </c>
       <c r="C29" t="n">
-        <v>607.3193105523696</v>
+        <v>745.7113893354822</v>
       </c>
       <c r="D29" t="n">
-        <v>607.3193105523696</v>
+        <v>745.7113893354822</v>
       </c>
       <c r="E29" t="n">
-        <v>607.3193105523696</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="F29" t="n">
-        <v>182.1951287417698</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="G29" t="n">
-        <v>182.1951287417698</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="H29" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I29" t="n">
-        <v>82.97064708758353</v>
+        <v>82.97064708758387</v>
       </c>
       <c r="J29" t="n">
-        <v>218.9221049399277</v>
+        <v>218.9221049399279</v>
       </c>
       <c r="K29" t="n">
-        <v>430.923107695718</v>
+        <v>430.9231076957184</v>
       </c>
       <c r="L29" t="n">
-        <v>699.9256343271982</v>
+        <v>699.9256343271986</v>
       </c>
       <c r="M29" t="n">
         <v>1004.389060027289</v>
@@ -6487,28 +6487,28 @@
         <v>2021.979826295251</v>
       </c>
       <c r="R29" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S29" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="T29" t="n">
-        <v>2109.473461650528</v>
+        <v>1838.088577933629</v>
       </c>
       <c r="U29" t="n">
-        <v>1851.277309416432</v>
+        <v>1838.088577933629</v>
       </c>
       <c r="V29" t="n">
-        <v>1851.277309416432</v>
+        <v>1838.088577933629</v>
       </c>
       <c r="W29" t="n">
-        <v>1851.277309416432</v>
+        <v>1577.949389367292</v>
       </c>
       <c r="X29" t="n">
-        <v>1439.557310584179</v>
+        <v>1577.949389367292</v>
       </c>
       <c r="Y29" t="n">
-        <v>1034.220040539069</v>
+        <v>1172.612119322182</v>
       </c>
     </row>
     <row r="30">
@@ -6533,37 +6533,37 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G30" t="n">
-        <v>85.31098196411673</v>
+        <v>85.31098196411675</v>
       </c>
       <c r="H30" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I30" t="n">
-        <v>62.00829666969776</v>
+        <v>85.46560251410963</v>
       </c>
       <c r="J30" t="n">
-        <v>139.922153475317</v>
+        <v>316.845545565263</v>
       </c>
       <c r="K30" t="n">
-        <v>285.7895037104463</v>
+        <v>462.7128958003924</v>
       </c>
       <c r="L30" t="n">
-        <v>489.4535701883733</v>
+        <v>666.3769622783195</v>
       </c>
       <c r="M30" t="n">
-        <v>730.2654206326901</v>
+        <v>907.1888127226364</v>
       </c>
       <c r="N30" t="n">
-        <v>979.7922489990522</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O30" t="n">
-        <v>1486.828723586478</v>
+        <v>1381.373223301572</v>
       </c>
       <c r="P30" t="n">
-        <v>1663.994616209847</v>
+        <v>1558.539115924941</v>
       </c>
       <c r="Q30" t="n">
-        <v>1774.31345419543</v>
+        <v>1668.857953910524</v>
       </c>
       <c r="R30" t="n">
         <v>1815.489017493114</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>589.2511065974458</v>
+        <v>735.2293147312707</v>
       </c>
       <c r="C31" t="n">
-        <v>417.2785434763617</v>
+        <v>563.2567516101867</v>
       </c>
       <c r="D31" t="n">
-        <v>417.2785434763617</v>
+        <v>563.2567516101867</v>
       </c>
       <c r="E31" t="n">
-        <v>251.0703376292153</v>
+        <v>397.0485457630402</v>
       </c>
       <c r="F31" t="n">
-        <v>251.0703376292153</v>
+        <v>225.1867715376007</v>
       </c>
       <c r="G31" t="n">
-        <v>251.0703376292153</v>
+        <v>59.81996434211979</v>
       </c>
       <c r="H31" t="n">
-        <v>115.188423092467</v>
+        <v>59.81996434211979</v>
       </c>
       <c r="I31" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="J31" t="n">
         <v>161.3628905938623</v>
       </c>
       <c r="K31" t="n">
-        <v>241.9705096995575</v>
+        <v>489.2531188135796</v>
       </c>
       <c r="L31" t="n">
-        <v>349.9802020495266</v>
+        <v>777.1957673410262</v>
       </c>
       <c r="M31" t="n">
-        <v>872.0748838080324</v>
+        <v>1299.290449099532</v>
       </c>
       <c r="N31" t="n">
-        <v>1383.07477500681</v>
+        <v>1412.25741745643</v>
       </c>
       <c r="O31" t="n">
-        <v>1826.056024591884</v>
+        <v>1513.299820018578</v>
       </c>
       <c r="P31" t="n">
-        <v>1909.417685288886</v>
+        <v>1909.417685288887</v>
       </c>
       <c r="Q31" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="R31" t="n">
         <v>2102.459791754789</v>
       </c>
       <c r="S31" t="n">
-        <v>1947.837849112289</v>
+        <v>1947.83784911229</v>
       </c>
       <c r="T31" t="n">
-        <v>1708.301922973052</v>
+        <v>1708.301922973053</v>
       </c>
       <c r="U31" t="n">
-        <v>1428.166028792099</v>
+        <v>1708.301922973053</v>
       </c>
       <c r="V31" t="n">
-        <v>1146.454561400128</v>
+        <v>1426.590455581081</v>
       </c>
       <c r="W31" t="n">
-        <v>1146.454561400128</v>
+        <v>1151.738051753594</v>
       </c>
       <c r="X31" t="n">
-        <v>903.8906648459327</v>
+        <v>1151.738051753594</v>
       </c>
       <c r="Y31" t="n">
-        <v>677.5478965356748</v>
+        <v>925.3952834433364</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1320.191320882453</v>
+        <v>1743.483941697452</v>
       </c>
       <c r="C32" t="n">
-        <v>893.2905908957528</v>
+        <v>1316.583211710752</v>
       </c>
       <c r="D32" t="n">
         <v>893.2905908957528</v>
@@ -6688,25 +6688,25 @@
         <v>467.3136510436104</v>
       </c>
       <c r="F32" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="G32" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="H32" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I32" t="n">
-        <v>82.97064708758364</v>
+        <v>82.97064708758376</v>
       </c>
       <c r="J32" t="n">
-        <v>218.9221049399276</v>
+        <v>218.9221049399278</v>
       </c>
       <c r="K32" t="n">
-        <v>430.923107695718</v>
+        <v>430.9231076957183</v>
       </c>
       <c r="L32" t="n">
-        <v>699.9256343271981</v>
+        <v>699.9256343271985</v>
       </c>
       <c r="M32" t="n">
         <v>1004.389060027289</v>
@@ -6724,28 +6724,28 @@
         <v>2021.979826295251</v>
       </c>
       <c r="R32" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S32" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="T32" t="n">
-        <v>1897.234884563253</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="U32" t="n">
-        <v>1639.038732329157</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="V32" t="n">
-        <v>1639.038732329157</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="W32" t="n">
-        <v>1320.191320882453</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="X32" t="n">
-        <v>1320.191320882453</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="Y32" t="n">
-        <v>1320.191320882453</v>
+        <v>2050.327155020904</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>85.31098196411673</v>
       </c>
       <c r="H33" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I33" t="n">
-        <v>71.81933565240683</v>
+        <v>85.46560251410962</v>
       </c>
       <c r="J33" t="n">
-        <v>149.7331924580261</v>
+        <v>316.845545565263</v>
       </c>
       <c r="K33" t="n">
-        <v>295.6005426931554</v>
+        <v>462.7128958003924</v>
       </c>
       <c r="L33" t="n">
-        <v>499.2646091710824</v>
+        <v>666.3769622783195</v>
       </c>
       <c r="M33" t="n">
-        <v>740.0764596153991</v>
+        <v>907.1888127226364</v>
       </c>
       <c r="N33" t="n">
-        <v>1262.171141373905</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O33" t="n">
-        <v>1486.828723586478</v>
+        <v>1381.373223301572</v>
       </c>
       <c r="P33" t="n">
-        <v>1663.994616209847</v>
+        <v>1558.539115924941</v>
       </c>
       <c r="Q33" t="n">
-        <v>1774.31345419543</v>
+        <v>1668.857953910524</v>
       </c>
       <c r="R33" t="n">
         <v>1815.489017493114</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>681.4361888605749</v>
+        <v>688.4498587563153</v>
       </c>
       <c r="C34" t="n">
-        <v>509.4636257394909</v>
+        <v>516.4772956352313</v>
       </c>
       <c r="D34" t="n">
-        <v>509.4636257394909</v>
+        <v>516.4772956352313</v>
       </c>
       <c r="E34" t="n">
-        <v>509.4636257394909</v>
+        <v>350.2690897880848</v>
       </c>
       <c r="F34" t="n">
-        <v>337.6018515140513</v>
+        <v>251.0703376292153</v>
       </c>
       <c r="G34" t="n">
-        <v>172.2350443185704</v>
+        <v>251.0703376292153</v>
       </c>
       <c r="H34" t="n">
         <v>115.188423092467</v>
       </c>
       <c r="I34" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="J34" t="n">
-        <v>161.3628905938623</v>
+        <v>83.44117394564145</v>
       </c>
       <c r="K34" t="n">
-        <v>489.2531188135795</v>
+        <v>164.0487930513367</v>
       </c>
       <c r="L34" t="n">
-        <v>973.6517047547136</v>
+        <v>465.5902221471489</v>
       </c>
       <c r="M34" t="n">
-        <v>1088.062252251214</v>
+        <v>987.6849039056548</v>
       </c>
       <c r="N34" t="n">
-        <v>1498.684795104432</v>
+        <v>1498.684795104433</v>
       </c>
       <c r="O34" t="n">
-        <v>1977.429521969783</v>
+        <v>1977.429521969784</v>
       </c>
       <c r="P34" t="n">
-        <v>2060.791182666785</v>
+        <v>2060.791182666786</v>
       </c>
       <c r="Q34" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="R34" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S34" t="n">
-        <v>1947.837849112289</v>
+        <v>1954.851519008029</v>
       </c>
       <c r="T34" t="n">
-        <v>1708.301922973052</v>
+        <v>1715.315592868792</v>
       </c>
       <c r="U34" t="n">
-        <v>1428.166028792099</v>
+        <v>1435.179698687839</v>
       </c>
       <c r="V34" t="n">
-        <v>1146.454561400128</v>
+        <v>1153.468231295868</v>
       </c>
       <c r="W34" t="n">
-        <v>871.6021575726406</v>
+        <v>878.615827468381</v>
       </c>
       <c r="X34" t="n">
-        <v>871.6021575726406</v>
+        <v>878.615827468381</v>
       </c>
       <c r="Y34" t="n">
-        <v>871.6021575726406</v>
+        <v>878.615827468381</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1743.483941697452</v>
+        <v>1689.625097358999</v>
       </c>
       <c r="C35" t="n">
-        <v>1316.583211710752</v>
+        <v>1262.724367372299</v>
       </c>
       <c r="D35" t="n">
-        <v>893.2905908957528</v>
+        <v>839.4317465572997</v>
       </c>
       <c r="E35" t="n">
-        <v>467.3136510436104</v>
+        <v>413.4548067051572</v>
       </c>
       <c r="F35" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="G35" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="H35" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I35" t="n">
         <v>82.97064708758353</v>
       </c>
       <c r="J35" t="n">
-        <v>218.9221049399275</v>
+        <v>218.9221049399277</v>
       </c>
       <c r="K35" t="n">
-        <v>430.9231076957179</v>
+        <v>430.9231076957182</v>
       </c>
       <c r="L35" t="n">
-        <v>699.9256343271979</v>
+        <v>699.9256343271984</v>
       </c>
       <c r="M35" t="n">
-        <v>1004.389060027289</v>
+        <v>1004.38906002729</v>
       </c>
       <c r="N35" t="n">
         <v>1314.52876612348</v>
       </c>
       <c r="O35" t="n">
-        <v>1605.217916110744</v>
+        <v>1605.217916110745</v>
       </c>
       <c r="P35" t="n">
-        <v>1847.70796765412</v>
+        <v>1847.707967654121</v>
       </c>
       <c r="Q35" t="n">
         <v>2021.979826295251</v>
       </c>
       <c r="R35" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S35" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="T35" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="U35" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="V35" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="W35" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="X35" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="Y35" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>891.9810417375021</v>
+        <v>597.9965975800881</v>
       </c>
       <c r="C36" t="n">
-        <v>774.4751382550069</v>
+        <v>480.4906940975928</v>
       </c>
       <c r="D36" t="n">
-        <v>670.6351797702919</v>
+        <v>376.6507356128779</v>
       </c>
       <c r="E36" t="n">
-        <v>565.9332460432291</v>
+        <v>271.9488018858151</v>
       </c>
       <c r="F36" t="n">
-        <v>472.2874157261333</v>
+        <v>178.3029715687193</v>
       </c>
       <c r="G36" t="n">
-        <v>379.2954261215308</v>
+        <v>85.31098196411675</v>
       </c>
       <c r="H36" t="n">
-        <v>336.1739133904246</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I36" t="n">
-        <v>355.9927408271118</v>
+        <v>85.46560251410963</v>
       </c>
       <c r="J36" t="n">
-        <v>433.9065976327311</v>
+        <v>316.845545565263</v>
       </c>
       <c r="K36" t="n">
-        <v>579.7739478678603</v>
+        <v>462.7128958003924</v>
       </c>
       <c r="L36" t="n">
-        <v>783.4380143457873</v>
+        <v>666.3769622783195</v>
       </c>
       <c r="M36" t="n">
-        <v>1024.249864790104</v>
+        <v>907.1888127226364</v>
       </c>
       <c r="N36" t="n">
-        <v>1450.700085246413</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O36" t="n">
-        <v>1675.357667458986</v>
+        <v>1381.373223301572</v>
       </c>
       <c r="P36" t="n">
-        <v>1852.523560082355</v>
+        <v>1558.539115924941</v>
       </c>
       <c r="Q36" t="n">
-        <v>1962.842398067938</v>
+        <v>1668.857953910524</v>
       </c>
       <c r="R36" t="n">
-        <v>2109.473461650528</v>
+        <v>1815.489017493114</v>
       </c>
       <c r="S36" t="n">
-        <v>2047.871352470359</v>
+        <v>1753.886908312945</v>
       </c>
       <c r="T36" t="n">
-        <v>1910.271144054845</v>
+        <v>1616.286699897431</v>
       </c>
       <c r="U36" t="n">
-        <v>1725.572802065126</v>
+        <v>1431.588357907712</v>
       </c>
       <c r="V36" t="n">
-        <v>1520.599663204392</v>
+        <v>1226.615219046978</v>
       </c>
       <c r="W36" t="n">
-        <v>1324.07828603761</v>
+        <v>1030.093841880195</v>
       </c>
       <c r="X36" t="n">
-        <v>1160.600939804272</v>
+        <v>866.6164956468584</v>
       </c>
       <c r="Y36" t="n">
-        <v>1020.908051157565</v>
+        <v>726.9236070001508</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>732.2013443163123</v>
+        <v>212.529523996123</v>
       </c>
       <c r="C37" t="n">
-        <v>732.2013443163123</v>
+        <v>212.529523996123</v>
       </c>
       <c r="D37" t="n">
-        <v>568.884571443083</v>
+        <v>115.188423092467</v>
       </c>
       <c r="E37" t="n">
-        <v>568.884571443083</v>
+        <v>115.188423092467</v>
       </c>
       <c r="F37" t="n">
-        <v>397.0227972176434</v>
+        <v>115.188423092467</v>
       </c>
       <c r="G37" t="n">
-        <v>231.6559900221625</v>
+        <v>115.188423092467</v>
       </c>
       <c r="H37" t="n">
-        <v>95.77407548541419</v>
+        <v>115.188423092467</v>
       </c>
       <c r="I37" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="J37" t="n">
-        <v>161.3628905938623</v>
+        <v>83.44117394564147</v>
       </c>
       <c r="K37" t="n">
-        <v>489.2531188135795</v>
+        <v>164.0487930513367</v>
       </c>
       <c r="L37" t="n">
-        <v>691.919049072453</v>
+        <v>465.5902221471492</v>
       </c>
       <c r="M37" t="n">
-        <v>1214.013730830959</v>
+        <v>987.6849039056552</v>
       </c>
       <c r="N37" t="n">
-        <v>1725.013622029737</v>
+        <v>1498.684795104433</v>
       </c>
       <c r="O37" t="n">
-        <v>1826.056024591884</v>
+        <v>1977.429521969784</v>
       </c>
       <c r="P37" t="n">
-        <v>1909.417685288886</v>
+        <v>2060.791182666786</v>
       </c>
       <c r="Q37" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="R37" t="n">
         <v>2102.459791754789</v>
       </c>
       <c r="S37" t="n">
-        <v>1947.837849112289</v>
+        <v>1947.83784911229</v>
       </c>
       <c r="T37" t="n">
-        <v>1947.837849112289</v>
+        <v>1708.301922973053</v>
       </c>
       <c r="U37" t="n">
-        <v>1947.837849112289</v>
+        <v>1428.1660287921</v>
       </c>
       <c r="V37" t="n">
-        <v>1666.126381720318</v>
+        <v>1146.454561400129</v>
       </c>
       <c r="W37" t="n">
-        <v>1391.273977892831</v>
+        <v>871.6021575726415</v>
       </c>
       <c r="X37" t="n">
-        <v>1148.710081338636</v>
+        <v>629.0382610184466</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.367313028378</v>
+        <v>402.6954927081887</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>867.6521058105129</v>
+        <v>722.0890472752521</v>
       </c>
       <c r="C38" t="n">
-        <v>440.751375823813</v>
+        <v>722.0890472752521</v>
       </c>
       <c r="D38" t="n">
-        <v>440.751375823813</v>
+        <v>722.0890472752521</v>
       </c>
       <c r="E38" t="n">
-        <v>440.751375823813</v>
+        <v>722.0890472752521</v>
       </c>
       <c r="F38" t="n">
-        <v>440.751375823813</v>
+        <v>722.0890472752521</v>
       </c>
       <c r="G38" t="n">
-        <v>42.18946923301057</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="H38" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I38" t="n">
         <v>82.97064708758353</v>
@@ -7177,10 +7177,10 @@
         <v>218.9221049399277</v>
       </c>
       <c r="K38" t="n">
-        <v>430.923107695718</v>
+        <v>430.9231076957183</v>
       </c>
       <c r="L38" t="n">
-        <v>699.9256343271982</v>
+        <v>699.9256343271983</v>
       </c>
       <c r="M38" t="n">
         <v>1004.389060027289</v>
@@ -7192,34 +7192,34 @@
         <v>1605.217916110744</v>
       </c>
       <c r="P38" t="n">
-        <v>1847.70796765412</v>
+        <v>1847.707967654121</v>
       </c>
       <c r="Q38" t="n">
         <v>2021.979826295251</v>
       </c>
       <c r="R38" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S38" t="n">
-        <v>2050.327155020903</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="T38" t="n">
-        <v>2050.327155020903</v>
+        <v>1838.088577933629</v>
       </c>
       <c r="U38" t="n">
-        <v>2050.327155020903</v>
+        <v>1579.892425699533</v>
       </c>
       <c r="V38" t="n">
-        <v>1692.837740147153</v>
+        <v>1523.817667020015</v>
       </c>
       <c r="W38" t="n">
-        <v>1692.837740147153</v>
+        <v>1127.426317320362</v>
       </c>
       <c r="X38" t="n">
-        <v>1692.837740147153</v>
+        <v>1127.426317320362</v>
       </c>
       <c r="Y38" t="n">
-        <v>1287.500470102043</v>
+        <v>722.0890472752521</v>
       </c>
     </row>
     <row r="39">
@@ -7244,28 +7244,28 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G39" t="n">
-        <v>85.31098196411673</v>
+        <v>85.31098196411675</v>
       </c>
       <c r="H39" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I39" t="n">
-        <v>85.46560251410961</v>
+        <v>85.46560251410963</v>
       </c>
       <c r="J39" t="n">
-        <v>163.3794593197289</v>
+        <v>316.845545565263</v>
       </c>
       <c r="K39" t="n">
-        <v>309.2468095548581</v>
+        <v>462.7128958003924</v>
       </c>
       <c r="L39" t="n">
-        <v>512.9108760327852</v>
+        <v>666.3769622783195</v>
       </c>
       <c r="M39" t="n">
-        <v>753.7227264771019</v>
+        <v>907.1888127226364</v>
       </c>
       <c r="N39" t="n">
-        <v>1003.249554843464</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O39" t="n">
         <v>1381.373223301572</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>963.1476562525461</v>
+        <v>374.1651365343625</v>
       </c>
       <c r="C40" t="n">
-        <v>791.1750931314621</v>
+        <v>202.1925734132785</v>
       </c>
       <c r="D40" t="n">
-        <v>681.5081710378258</v>
+        <v>202.1925734132785</v>
       </c>
       <c r="E40" t="n">
-        <v>515.2999651906794</v>
+        <v>202.1925734132785</v>
       </c>
       <c r="F40" t="n">
-        <v>343.4381909652398</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="G40" t="n">
-        <v>178.0713837697589</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="H40" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I40" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="J40" t="n">
-        <v>161.3628905938623</v>
+        <v>83.44117394564147</v>
       </c>
       <c r="K40" t="n">
-        <v>489.2531188135795</v>
+        <v>164.0487930513367</v>
       </c>
       <c r="L40" t="n">
-        <v>597.2628111635486</v>
+        <v>465.5902221471492</v>
       </c>
       <c r="M40" t="n">
-        <v>1119.357492922054</v>
+        <v>987.6849039056552</v>
       </c>
       <c r="N40" t="n">
-        <v>1232.324461278952</v>
+        <v>1498.684795104433</v>
       </c>
       <c r="O40" t="n">
-        <v>1711.069188144303</v>
+        <v>1977.429521969784</v>
       </c>
       <c r="P40" t="n">
-        <v>1909.417685288886</v>
+        <v>2060.791182666786</v>
       </c>
       <c r="Q40" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="R40" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S40" t="n">
-        <v>1947.837849112289</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="T40" t="n">
-        <v>1708.301922973052</v>
+        <v>1869.937535511292</v>
       </c>
       <c r="U40" t="n">
-        <v>1428.166028792099</v>
+        <v>1589.801641330339</v>
       </c>
       <c r="V40" t="n">
-        <v>1428.166028792099</v>
+        <v>1308.090173938368</v>
       </c>
       <c r="W40" t="n">
-        <v>1153.313624964612</v>
+        <v>1033.237770110881</v>
       </c>
       <c r="X40" t="n">
-        <v>1153.313624964612</v>
+        <v>790.6738735566861</v>
       </c>
       <c r="Y40" t="n">
-        <v>1153.313624964612</v>
+        <v>564.3311052464281</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1172.612119322182</v>
+        <v>1743.483941697452</v>
       </c>
       <c r="C41" t="n">
-        <v>745.7113893354822</v>
+        <v>1316.583211710752</v>
       </c>
       <c r="D41" t="n">
-        <v>745.7113893354822</v>
+        <v>893.2905908957528</v>
       </c>
       <c r="E41" t="n">
-        <v>319.7344494833398</v>
+        <v>467.3136510436104</v>
       </c>
       <c r="F41" t="n">
-        <v>319.7344494833398</v>
+        <v>42.1894692330106</v>
       </c>
       <c r="G41" t="n">
-        <v>319.7344494833398</v>
+        <v>42.1894692330106</v>
       </c>
       <c r="H41" t="n">
-        <v>42.18946923301057</v>
+        <v>42.1894692330106</v>
       </c>
       <c r="I41" t="n">
-        <v>82.97064708758364</v>
+        <v>82.9706470875837</v>
       </c>
       <c r="J41" t="n">
-        <v>218.9221049399276</v>
+        <v>218.9221049399278</v>
       </c>
       <c r="K41" t="n">
-        <v>430.923107695718</v>
+        <v>430.9231076957183</v>
       </c>
       <c r="L41" t="n">
-        <v>699.9256343271979</v>
+        <v>699.9256343271985</v>
       </c>
       <c r="M41" t="n">
-        <v>1004.389060027289</v>
+        <v>1004.38906002729</v>
       </c>
       <c r="N41" t="n">
-        <v>1314.528766123479</v>
+        <v>1314.528766123481</v>
       </c>
       <c r="O41" t="n">
-        <v>1605.217916110744</v>
+        <v>1605.217916110745</v>
       </c>
       <c r="P41" t="n">
-        <v>1847.70796765412</v>
+        <v>1847.707967654121</v>
       </c>
       <c r="Q41" t="n">
-        <v>2021.979826295251</v>
+        <v>2021.979826295252</v>
       </c>
       <c r="R41" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.47346165053</v>
       </c>
       <c r="S41" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020905</v>
       </c>
       <c r="T41" t="n">
-        <v>1897.234884563253</v>
+        <v>2050.327155020905</v>
       </c>
       <c r="U41" t="n">
-        <v>1639.038732329157</v>
+        <v>2050.327155020905</v>
       </c>
       <c r="V41" t="n">
-        <v>1639.038732329157</v>
+        <v>2050.327155020905</v>
       </c>
       <c r="W41" t="n">
-        <v>1639.038732329157</v>
+        <v>2050.327155020905</v>
       </c>
       <c r="X41" t="n">
-        <v>1639.038732329157</v>
+        <v>2050.327155020905</v>
       </c>
       <c r="Y41" t="n">
-        <v>1592.460483613712</v>
+        <v>2050.327155020905</v>
       </c>
     </row>
     <row r="42">
@@ -7481,25 +7481,25 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G42" t="n">
-        <v>85.31098196411675</v>
+        <v>85.31098196411676</v>
       </c>
       <c r="H42" t="n">
-        <v>42.18946923301057</v>
+        <v>42.1894692330106</v>
       </c>
       <c r="I42" t="n">
-        <v>62.00829666969776</v>
+        <v>85.46560251410966</v>
       </c>
       <c r="J42" t="n">
-        <v>139.922153475317</v>
+        <v>316.8455455652629</v>
       </c>
       <c r="K42" t="n">
-        <v>285.7895037104463</v>
+        <v>462.7128958003923</v>
       </c>
       <c r="L42" t="n">
-        <v>666.3769622783205</v>
+        <v>666.3769622783194</v>
       </c>
       <c r="M42" t="n">
-        <v>907.1888127226373</v>
+        <v>907.1888127226364</v>
       </c>
       <c r="N42" t="n">
         <v>1156.715641088999</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>708.9430293743068</v>
+        <v>953.9145463548472</v>
       </c>
       <c r="C43" t="n">
-        <v>708.9430293743068</v>
+        <v>781.9419832337632</v>
       </c>
       <c r="D43" t="n">
-        <v>545.6262565010775</v>
+        <v>618.6252103605339</v>
       </c>
       <c r="E43" t="n">
-        <v>379.418050653931</v>
+        <v>452.4170045133874</v>
       </c>
       <c r="F43" t="n">
-        <v>207.5562764284915</v>
+        <v>280.5552302879478</v>
       </c>
       <c r="G43" t="n">
-        <v>42.18946923301057</v>
+        <v>115.188423092467</v>
       </c>
       <c r="H43" t="n">
-        <v>42.18946923301057</v>
+        <v>115.188423092467</v>
       </c>
       <c r="I43" t="n">
-        <v>42.18946923301057</v>
+        <v>42.1894692330106</v>
       </c>
       <c r="J43" t="n">
-        <v>161.3628905938623</v>
+        <v>83.44117394564149</v>
       </c>
       <c r="K43" t="n">
-        <v>489.2531188135795</v>
+        <v>164.0487930513368</v>
       </c>
       <c r="L43" t="n">
-        <v>597.2628111635486</v>
+        <v>465.5902221471496</v>
       </c>
       <c r="M43" t="n">
-        <v>711.6733586600492</v>
+        <v>987.6849039056557</v>
       </c>
       <c r="N43" t="n">
-        <v>1222.673249858827</v>
+        <v>1498.684795104434</v>
       </c>
       <c r="O43" t="n">
-        <v>1701.417976724178</v>
+        <v>1977.429521969784</v>
       </c>
       <c r="P43" t="n">
-        <v>1909.417685288886</v>
+        <v>2060.791182666786</v>
       </c>
       <c r="Q43" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.47346165053</v>
       </c>
       <c r="R43" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.47346165053</v>
       </c>
       <c r="S43" t="n">
-        <v>1947.837849112289</v>
+        <v>1954.85151900803</v>
       </c>
       <c r="T43" t="n">
-        <v>1947.837849112289</v>
+        <v>1715.315592868793</v>
       </c>
       <c r="U43" t="n">
-        <v>1667.701954931336</v>
+        <v>1435.17969868784</v>
       </c>
       <c r="V43" t="n">
-        <v>1400.304170224117</v>
+        <v>1153.468231295869</v>
       </c>
       <c r="W43" t="n">
-        <v>1125.45176639663</v>
+        <v>1144.080515066913</v>
       </c>
       <c r="X43" t="n">
-        <v>1125.45176639663</v>
+        <v>1144.080515066913</v>
       </c>
       <c r="Y43" t="n">
-        <v>899.1089980863724</v>
+        <v>1144.080515066913</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1713.082111950875</v>
+        <v>1218.758791897122</v>
       </c>
       <c r="C44" t="n">
-        <v>1713.082111950875</v>
+        <v>1218.758791897122</v>
       </c>
       <c r="D44" t="n">
-        <v>1289.789491135876</v>
+        <v>795.4661710821222</v>
       </c>
       <c r="E44" t="n">
-        <v>863.8125512837331</v>
+        <v>795.4661710821222</v>
       </c>
       <c r="F44" t="n">
-        <v>438.6883694731333</v>
+        <v>370.3419892715224</v>
       </c>
       <c r="G44" t="n">
-        <v>42.18946923301057</v>
+        <v>42.1894692330106</v>
       </c>
       <c r="H44" t="n">
-        <v>42.18946923301057</v>
+        <v>42.1894692330106</v>
       </c>
       <c r="I44" t="n">
-        <v>82.97064708758363</v>
+        <v>82.97064708758364</v>
       </c>
       <c r="J44" t="n">
-        <v>218.9221049399276</v>
+        <v>218.9221049399277</v>
       </c>
       <c r="K44" t="n">
-        <v>430.9231076957179</v>
+        <v>430.9231076957183</v>
       </c>
       <c r="L44" t="n">
-        <v>699.9256343271979</v>
+        <v>699.9256343271985</v>
       </c>
       <c r="M44" t="n">
-        <v>1004.389060027289</v>
+        <v>1004.38906002729</v>
       </c>
       <c r="N44" t="n">
-        <v>1314.528766123479</v>
+        <v>1314.528766123481</v>
       </c>
       <c r="O44" t="n">
-        <v>1605.217916110743</v>
+        <v>1605.217916110745</v>
       </c>
       <c r="P44" t="n">
-        <v>1847.707967654119</v>
+        <v>1847.707967654121</v>
       </c>
       <c r="Q44" t="n">
-        <v>2021.97982629525</v>
+        <v>2021.979826295252</v>
       </c>
       <c r="R44" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.47346165053</v>
       </c>
       <c r="S44" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020905</v>
       </c>
       <c r="T44" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020905</v>
       </c>
       <c r="U44" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020905</v>
       </c>
       <c r="V44" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020905</v>
       </c>
       <c r="W44" t="n">
-        <v>1713.082111950875</v>
+        <v>2050.327155020905</v>
       </c>
       <c r="X44" t="n">
-        <v>1713.082111950875</v>
+        <v>1638.607156188652</v>
       </c>
       <c r="Y44" t="n">
-        <v>1713.082111950875</v>
+        <v>1638.607156188652</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G45" t="n">
-        <v>85.31098196411675</v>
+        <v>85.31098196411676</v>
       </c>
       <c r="H45" t="n">
-        <v>42.18946923301057</v>
+        <v>42.1894692330106</v>
       </c>
       <c r="I45" t="n">
-        <v>62.00829666969776</v>
+        <v>85.46560251410966</v>
       </c>
       <c r="J45" t="n">
-        <v>139.922153475317</v>
+        <v>316.8455455652629</v>
       </c>
       <c r="K45" t="n">
-        <v>285.7895037104463</v>
+        <v>462.7128958003923</v>
       </c>
       <c r="L45" t="n">
-        <v>489.4535701883732</v>
+        <v>666.3769622783194</v>
       </c>
       <c r="M45" t="n">
-        <v>730.2654206326901</v>
+        <v>907.1888127226364</v>
       </c>
       <c r="N45" t="n">
-        <v>979.792248999052</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O45" t="n">
-        <v>1486.828723586478</v>
+        <v>1381.373223301572</v>
       </c>
       <c r="P45" t="n">
-        <v>1663.994616209847</v>
+        <v>1558.539115924941</v>
       </c>
       <c r="Q45" t="n">
-        <v>1774.31345419543</v>
+        <v>1668.857953910524</v>
       </c>
       <c r="R45" t="n">
         <v>1815.489017493114</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>974.7652408705071</v>
+        <v>613.7010626736003</v>
       </c>
       <c r="C46" t="n">
-        <v>802.7926777494231</v>
+        <v>613.7010626736003</v>
       </c>
       <c r="D46" t="n">
-        <v>639.4759048761938</v>
+        <v>450.384289800371</v>
       </c>
       <c r="E46" t="n">
-        <v>588.2989190501357</v>
+        <v>284.1760839532245</v>
       </c>
       <c r="F46" t="n">
-        <v>416.4371448246962</v>
+        <v>112.3143097277849</v>
       </c>
       <c r="G46" t="n">
-        <v>251.0703376292153</v>
+        <v>42.1894692330106</v>
       </c>
       <c r="H46" t="n">
-        <v>115.188423092467</v>
+        <v>42.1894692330106</v>
       </c>
       <c r="I46" t="n">
-        <v>42.18946923301057</v>
+        <v>42.1894692330106</v>
       </c>
       <c r="J46" t="n">
-        <v>161.3628905938623</v>
+        <v>83.44117394564149</v>
       </c>
       <c r="K46" t="n">
-        <v>241.9705096995575</v>
+        <v>164.0487930513368</v>
       </c>
       <c r="L46" t="n">
-        <v>726.3690956406915</v>
+        <v>465.5902221471496</v>
       </c>
       <c r="M46" t="n">
-        <v>1234.344329369636</v>
+        <v>987.6849039056557</v>
       </c>
       <c r="N46" t="n">
-        <v>1347.311297726534</v>
+        <v>1498.684795104434</v>
       </c>
       <c r="O46" t="n">
-        <v>1826.056024591884</v>
+        <v>1977.429521969784</v>
       </c>
       <c r="P46" t="n">
-        <v>1909.417685288886</v>
+        <v>2060.791182666786</v>
       </c>
       <c r="Q46" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.47346165053</v>
       </c>
       <c r="R46" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.47346165053</v>
       </c>
       <c r="S46" t="n">
-        <v>1947.837849112289</v>
+        <v>2109.47346165053</v>
       </c>
       <c r="T46" t="n">
-        <v>1947.837849112289</v>
+        <v>2109.47346165053</v>
       </c>
       <c r="U46" t="n">
-        <v>1947.837849112289</v>
+        <v>1829.337567469577</v>
       </c>
       <c r="V46" t="n">
-        <v>1666.126381720318</v>
+        <v>1547.626100077606</v>
       </c>
       <c r="W46" t="n">
-        <v>1391.273977892831</v>
+        <v>1272.773696250119</v>
       </c>
       <c r="X46" t="n">
-        <v>1391.273977892831</v>
+        <v>1030.209799695924</v>
       </c>
       <c r="Y46" t="n">
-        <v>1164.931209582573</v>
+        <v>803.867031385666</v>
       </c>
     </row>
   </sheetData>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>285.2312044190433</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>285.2312044190433</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>195.4866027735787</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>411.8021558202073</v>
       </c>
       <c r="N13" t="n">
-        <v>81.62472894862221</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>285.2312044190433</v>
+        <v>285.231204419043</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>195.4866027735787</v>
       </c>
       <c r="M16" t="n">
-        <v>411.8021558202072</v>
+        <v>411.8021558202073</v>
       </c>
       <c r="N16" t="n">
-        <v>50.01337473565225</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>155.0162487328633</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>155.0162487328638</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>234.5272515525614</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>411.8021558202072</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>345.3927747706328</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>261.5369560913543</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,10 +9488,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>284.1240720345344</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.107132384508844</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9558,22 +9558,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>411.8021558202072</v>
+        <v>411.8021558202074</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>204.2425950285186</v>
+        <v>33.17098647720434</v>
       </c>
       <c r="P22" t="n">
         <v>315.9153581548562</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>285.2312044190434</v>
+        <v>261.5369560913535</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9804,7 +9804,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>292.0706196934729</v>
+        <v>411.8021558202073</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>33.17098647720424</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>155.0162487328627</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>178.7104970605526</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10038,22 +10038,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>116.7777980784062</v>
       </c>
       <c r="M28" t="n">
-        <v>411.8021558202071</v>
+        <v>411.8021558202074</v>
       </c>
       <c r="N28" t="n">
-        <v>50.01337473565191</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>155.0162487328627</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>285.231204419043</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,22 +10272,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>181.7504607853307</v>
       </c>
       <c r="M31" t="n">
-        <v>411.8021558202072</v>
+        <v>411.8021558202075</v>
       </c>
       <c r="N31" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>345.3927747706328</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
         <v>152.9025226039384</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>9.91014038657482</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>155.0162487328627</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>275.3210640324684</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,19 +10506,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>380.1908016072373</v>
+        <v>195.4866027735789</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>411.8021558202074</v>
       </c>
       <c r="N34" t="n">
-        <v>300.6621964609297</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>155.0162487328627</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>178.7104970605528</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>95.61236152414591</v>
+        <v>195.4866027735792</v>
       </c>
       <c r="M37" t="n">
-        <v>411.8021558202073</v>
+        <v>411.8021558202075</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>155.0162487328627</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>155.0162487328638</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>195.4866027735792</v>
       </c>
       <c r="M40" t="n">
-        <v>411.8021558202072</v>
+        <v>411.8021558202075</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>116.1483196440216</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>155.0162487328626</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>178.7104970605529</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11217,16 +11217,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>195.4866027735794</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>411.8021558202075</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
@@ -11235,10 +11235,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>125.8970180481885</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>155.0162487328626</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>285.2312044190434</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,19 +11454,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>195.4866027735794</v>
       </c>
       <c r="M46" t="n">
-        <v>397.5400871034786</v>
+        <v>411.8021558202075</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>106.7141644502416</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>10.50876880127623</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3310518139933</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>274.7695304478259</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6141907117556</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23326,7 +23326,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>37.34945404711162</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>99.61041743614433</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>134.5230953913808</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.943533196782496</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -23500,10 +23500,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.6141907117556</v>
       </c>
       <c r="V14" t="n">
-        <v>300.6085991097828</v>
+        <v>77.55072420964456</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>4.84298280461428</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>72.26896432086181</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.943533196782496</v>
+        <v>6.943533196782482</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>153.0757232160747</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1405668778449</v>
       </c>
       <c r="U16" t="n">
-        <v>65.39669347955765</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -23737,7 +23737,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>342.3515968711061</v>
+        <v>274.9522666569407</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -23746,7 +23746,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3310518139933</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.26896432086183</v>
+        <v>72.26896432086181</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.943533196782482</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>68.71986295867276</v>
       </c>
       <c r="V19" t="n">
-        <v>59.90382520063628</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>53.32025589506856</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.55484356332865</v>
+        <v>58.55484356332864</v>
       </c>
       <c r="T20" t="n">
         <v>210.1161913164022</v>
@@ -24031,7 +24031,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>280.5666710240975</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>11.74008334471995</v>
       </c>
       <c r="G22" t="n">
-        <v>7.59912769475784</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H22" t="n">
         <v>134.5230953913808</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.26896432086181</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.943533196782482</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>153.0757232160747</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3345352391432</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>159.2914252694279</v>
+        <v>53.32025589506901</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>398.3310518139933</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.55484356332862</v>
       </c>
       <c r="T23" t="n">
         <v>210.1161913164022</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>156.3562552221068</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>163.713139123526</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>72.26896432086181</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>6.943533196782475</v>
       </c>
       <c r="S25" t="n">
-        <v>0.4818997821512596</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1405668778449</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>168.054096406037</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>398.3310518139933</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>210.1161913164022</v>
@@ -24502,10 +24502,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>277.3084264567146</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>132.529275940847</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>6.943533196782475</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1405668778449</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>202.9511340350761</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24688,16 +24688,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>398.3310518139933</v>
       </c>
       <c r="H29" t="n">
-        <v>136.1639275341542</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>134.8896395219823</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.8504869860982</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>54.8147741628437</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>111.8750994583978</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>76.76849887041942</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -25083,16 +25083,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>71.93639184590441</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H34" t="n">
-        <v>78.04694037753842</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>6.943533196782475</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>53.32025589506947</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>53.32025589506856</v>
       </c>
       <c r="G35" t="n">
         <v>398.3310518139933</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.55484356332865</v>
+        <v>58.55484356332862</v>
       </c>
       <c r="T35" t="n">
         <v>210.1161913164022</v>
@@ -25317,22 +25317,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>65.31591524987749</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I37" t="n">
-        <v>19.22020413098225</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1405668778449</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3345352391432</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -25405,10 +25405,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>3.754764289098887</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,16 +25444,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6141907117556</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>298.4005096322904</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>53.11335227179713</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>11.74008334471995</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I40" t="n">
-        <v>72.26896432086183</v>
+        <v>72.26896432086181</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.943533196782475</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>153.0757232160747</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>111.8750994583969</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>398.3310518139933</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25696,7 +25696,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>355.1714311163683</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>134.5230953913808</v>
       </c>
       <c r="I43" t="n">
-        <v>72.26896432086183</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.943533196782468</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1405668778449</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>14.17054585790481</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>262.8100407225455</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -25873,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.797140576271772</v>
+        <v>73.46005697586662</v>
       </c>
       <c r="H44" t="n">
         <v>274.7695304478259</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>210.1161913164022</v>
@@ -25927,10 +25927,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>113.8809078208775</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>94.28954703369945</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.26896432086181</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.943533196782468</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>153.0757232160747</v>
       </c>
       <c r="T46" t="n">
         <v>237.1405668778449</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3345352391432</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>354801.1820039906</v>
+        <v>354801.1820039905</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>354801.1820039906</v>
+        <v>354801.1820039907</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>354801.1820039906</v>
+        <v>354801.1820039907</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>354801.1820039905</v>
+        <v>354801.1820039907</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>354801.1820039906</v>
+        <v>354801.1820039907</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>354801.1820039906</v>
+        <v>354801.1820039907</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>444672.3489394088</v>
+        <v>444672.3489394087</v>
       </c>
       <c r="C2" t="n">
-        <v>444673.0679014574</v>
+        <v>444673.0679014575</v>
       </c>
       <c r="D2" t="n">
         <v>444673.7947401454</v>
       </c>
       <c r="E2" t="n">
-        <v>262140.961649279</v>
+        <v>262140.9616492788</v>
       </c>
       <c r="F2" t="n">
         <v>262140.961649279</v>
       </c>
       <c r="G2" t="n">
-        <v>262140.961649279</v>
+        <v>262140.9616492789</v>
       </c>
       <c r="H2" t="n">
         <v>262140.961649279</v>
       </c>
       <c r="I2" t="n">
+        <v>262140.9616492789</v>
+      </c>
+      <c r="J2" t="n">
+        <v>262140.9616492789</v>
+      </c>
+      <c r="K2" t="n">
         <v>262140.961649279</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>262140.9616492789</v>
+      </c>
+      <c r="M2" t="n">
+        <v>262140.9616492791</v>
+      </c>
+      <c r="N2" t="n">
         <v>262140.961649279</v>
-      </c>
-      <c r="K2" t="n">
-        <v>262140.9616492791</v>
-      </c>
-      <c r="L2" t="n">
-        <v>262140.961649279</v>
-      </c>
-      <c r="M2" t="n">
-        <v>262140.9616492789</v>
-      </c>
-      <c r="N2" t="n">
-        <v>262140.9616492789</v>
       </c>
       <c r="O2" t="n">
         <v>262140.961649279</v>
       </c>
       <c r="P2" t="n">
-        <v>262140.961649279</v>
+        <v>262140.9616492791</v>
       </c>
     </row>
     <row r="3">
@@ -26368,7 +26368,7 @@
         <v>40837.35405472643</v>
       </c>
       <c r="C3" t="n">
-        <v>2639.872094278538</v>
+        <v>2639.872094278531</v>
       </c>
       <c r="D3" t="n">
         <v>2509.979145161255</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>131422.3061342896</v>
+        <v>131422.3061342895</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>312459.3647125762</v>
+        <v>312459.3647125761</v>
       </c>
       <c r="C4" t="n">
         <v>311558.4141750159</v>
@@ -26426,40 +26426,40 @@
         <v>310682.5703880748</v>
       </c>
       <c r="E4" t="n">
-        <v>25449.36193281949</v>
+        <v>25449.36193281948</v>
       </c>
       <c r="F4" t="n">
-        <v>25449.36193281949</v>
+        <v>25449.36193281947</v>
       </c>
       <c r="G4" t="n">
-        <v>25449.36193281949</v>
+        <v>25449.36193281948</v>
       </c>
       <c r="H4" t="n">
         <v>25449.36193281949</v>
       </c>
       <c r="I4" t="n">
-        <v>25449.36193281949</v>
+        <v>25449.36193281947</v>
       </c>
       <c r="J4" t="n">
-        <v>25449.36193281948</v>
+        <v>25449.36193281946</v>
       </c>
       <c r="K4" t="n">
-        <v>25449.36193281948</v>
+        <v>25449.36193281947</v>
       </c>
       <c r="L4" t="n">
-        <v>25449.36193281948</v>
+        <v>25449.36193281946</v>
       </c>
       <c r="M4" t="n">
-        <v>25449.36193281949</v>
+        <v>25449.36193281947</v>
       </c>
       <c r="N4" t="n">
-        <v>25449.36193281949</v>
+        <v>25449.36193281947</v>
       </c>
       <c r="O4" t="n">
-        <v>25449.3619328195</v>
+        <v>25449.36193281947</v>
       </c>
       <c r="P4" t="n">
-        <v>25449.36193281949</v>
+        <v>25449.36193281947</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>42717.63957270506</v>
       </c>
       <c r="G5" t="n">
-        <v>42717.63957270506</v>
+        <v>42717.63957270508</v>
       </c>
       <c r="H5" t="n">
-        <v>42717.63957270506</v>
+        <v>42717.63957270508</v>
       </c>
       <c r="I5" t="n">
-        <v>42717.63957270506</v>
+        <v>42717.63957270507</v>
       </c>
       <c r="J5" t="n">
-        <v>42717.63957270505</v>
+        <v>42717.63957270507</v>
       </c>
       <c r="K5" t="n">
-        <v>42717.63957270506</v>
+        <v>42717.63957270508</v>
       </c>
       <c r="L5" t="n">
-        <v>42717.63957270506</v>
+        <v>42717.63957270507</v>
       </c>
       <c r="M5" t="n">
-        <v>42717.63957270506</v>
+        <v>42717.63957270508</v>
       </c>
       <c r="N5" t="n">
-        <v>42717.63957270506</v>
+        <v>42717.63957270508</v>
       </c>
       <c r="O5" t="n">
-        <v>42717.63957270505</v>
+        <v>42717.63957270508</v>
       </c>
       <c r="P5" t="n">
-        <v>42717.63957270505</v>
+        <v>42717.63957270508</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56824.15895161303</v>
+        <v>56802.47921364773</v>
       </c>
       <c r="C6" t="n">
-        <v>95860.11132836534</v>
+        <v>95838.43390963257</v>
       </c>
       <c r="D6" t="n">
-        <v>96802.68343781045</v>
+        <v>96781.00836371839</v>
       </c>
       <c r="E6" t="n">
-        <v>-317377.589154887</v>
+        <v>-317988.0798195949</v>
       </c>
       <c r="F6" t="n">
-        <v>193973.9601437545</v>
+        <v>193363.4694790468</v>
       </c>
       <c r="G6" t="n">
-        <v>193973.9601437545</v>
+        <v>193363.4694790467</v>
       </c>
       <c r="H6" t="n">
-        <v>193973.9601437545</v>
+        <v>193363.4694790468</v>
       </c>
       <c r="I6" t="n">
-        <v>193973.9601437545</v>
+        <v>193363.4694790467</v>
       </c>
       <c r="J6" t="n">
-        <v>193973.9601437545</v>
+        <v>193363.4694790467</v>
       </c>
       <c r="K6" t="n">
-        <v>193973.9601437545</v>
+        <v>193363.4694790468</v>
       </c>
       <c r="L6" t="n">
-        <v>193973.9601437545</v>
+        <v>193363.4694790467</v>
       </c>
       <c r="M6" t="n">
-        <v>62551.65400946479</v>
+        <v>61941.16334475733</v>
       </c>
       <c r="N6" t="n">
-        <v>193973.9601437543</v>
+        <v>193363.4694790468</v>
       </c>
       <c r="O6" t="n">
-        <v>193973.9601437544</v>
+        <v>193363.4694790468</v>
       </c>
       <c r="P6" t="n">
-        <v>193973.9601437544</v>
+        <v>193363.4694790468</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>488.6992181475702</v>
       </c>
       <c r="F3" t="n">
-        <v>488.6992181475702</v>
+        <v>488.6992181475703</v>
       </c>
       <c r="G3" t="n">
-        <v>488.6992181475702</v>
+        <v>488.6992181475703</v>
       </c>
       <c r="H3" t="n">
-        <v>488.6992181475702</v>
+        <v>488.6992181475703</v>
       </c>
       <c r="I3" t="n">
-        <v>488.6992181475702</v>
+        <v>488.6992181475704</v>
       </c>
       <c r="J3" t="n">
-        <v>488.6992181475702</v>
+        <v>488.6992181475704</v>
       </c>
       <c r="K3" t="n">
-        <v>488.6992181475702</v>
+        <v>488.6992181475704</v>
       </c>
       <c r="L3" t="n">
-        <v>488.6992181475702</v>
+        <v>488.6992181475704</v>
       </c>
       <c r="M3" t="n">
-        <v>488.6992181475702</v>
+        <v>488.6992181475704</v>
       </c>
       <c r="N3" t="n">
-        <v>488.6992181475702</v>
+        <v>488.6992181475704</v>
       </c>
       <c r="O3" t="n">
-        <v>488.6992181475701</v>
+        <v>488.6992181475705</v>
       </c>
       <c r="P3" t="n">
-        <v>488.6992181475701</v>
+        <v>488.6992181475705</v>
       </c>
     </row>
     <row r="4">
@@ -26804,34 +26804,34 @@
         <v>527.3683654126321</v>
       </c>
       <c r="G4" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="H4" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="I4" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126322</v>
       </c>
       <c r="J4" t="n">
-        <v>527.368365412632</v>
+        <v>527.3683654126322</v>
       </c>
       <c r="K4" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="L4" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126322</v>
       </c>
       <c r="M4" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="N4" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="O4" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126324</v>
       </c>
       <c r="P4" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126324</v>
       </c>
     </row>
   </sheetData>
@@ -26962,7 +26962,7 @@
         <v>42.37941378408804</v>
       </c>
       <c r="C3" t="n">
-        <v>2.899040518556447</v>
+        <v>2.89904051855644</v>
       </c>
       <c r="D3" t="n">
         <v>2.930801160608368</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>527.3683654126322</v>
+        <v>527.368365412632</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31989,19 +31989,19 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H14" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I14" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797672</v>
       </c>
       <c r="J14" t="n">
         <v>166.7446643869441</v>
       </c>
       <c r="K14" t="n">
-        <v>249.9070278208602</v>
+        <v>249.9070278208603</v>
       </c>
       <c r="L14" t="n">
         <v>310.0317663028048</v>
@@ -32013,10 +32013,10 @@
         <v>350.5520532346385</v>
       </c>
       <c r="O14" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835636</v>
       </c>
       <c r="P14" t="n">
-        <v>282.5148078136413</v>
+        <v>282.5148078136414</v>
       </c>
       <c r="Q14" t="n">
         <v>212.1568550501846</v>
@@ -32025,13 +32025,13 @@
         <v>123.4100593445721</v>
       </c>
       <c r="S14" t="n">
-        <v>44.76877762226235</v>
+        <v>44.76877762226236</v>
       </c>
       <c r="T14" t="n">
-        <v>8.600123929411007</v>
+        <v>8.600123929411009</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.051164356015528</v>
+        <v>1.051164356015529</v>
       </c>
       <c r="H15" t="n">
-        <v>10.15203470151839</v>
+        <v>10.1520347015184</v>
       </c>
       <c r="I15" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J15" t="n">
-        <v>99.31197979355483</v>
+        <v>99.31197979355485</v>
       </c>
       <c r="K15" t="n">
-        <v>169.7399916465952</v>
+        <v>169.7399916465953</v>
       </c>
       <c r="L15" t="n">
         <v>228.2363659848629</v>
       </c>
       <c r="M15" t="n">
-        <v>266.3410738904257</v>
+        <v>266.3410738904258</v>
       </c>
       <c r="N15" t="n">
         <v>273.3903295937054</v>
       </c>
       <c r="O15" t="n">
-        <v>250.0987404419928</v>
+        <v>250.0987404419929</v>
       </c>
       <c r="P15" t="n">
         <v>200.7262882991407</v>
@@ -32101,16 +32101,16 @@
         <v>134.1802079713857</v>
       </c>
       <c r="R15" t="n">
-        <v>65.26439747261327</v>
+        <v>65.26439747261328</v>
       </c>
       <c r="S15" t="n">
         <v>19.52491687599018</v>
       </c>
       <c r="T15" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939783</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06915554973786374</v>
+        <v>0.06915554973786375</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8812608851841429</v>
+        <v>0.8812608851841431</v>
       </c>
       <c r="H16" t="n">
-        <v>7.835210415546294</v>
+        <v>7.835210415546296</v>
       </c>
       <c r="I16" t="n">
         <v>26.50191825626496</v>
       </c>
       <c r="J16" t="n">
-        <v>62.3051445825189</v>
+        <v>62.30514458251891</v>
       </c>
       <c r="K16" t="n">
         <v>102.3864919332122</v>
@@ -32171,25 +32171,25 @@
         <v>134.8569498209517</v>
       </c>
       <c r="O16" t="n">
-        <v>124.5622203894823</v>
+        <v>124.5622203894824</v>
       </c>
       <c r="P16" t="n">
         <v>106.5844983317258</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028312</v>
       </c>
       <c r="R16" t="n">
-        <v>39.62469398291609</v>
+        <v>39.6246939829161</v>
       </c>
       <c r="S16" t="n">
         <v>15.35797378998183</v>
       </c>
       <c r="T16" t="n">
-        <v>3.765387418514064</v>
+        <v>3.765387418514065</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04806877555549876</v>
+        <v>0.04806877555549877</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,19 +32226,19 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H17" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I17" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797672</v>
       </c>
       <c r="J17" t="n">
         <v>166.7446643869441</v>
       </c>
       <c r="K17" t="n">
-        <v>249.9070278208602</v>
+        <v>249.9070278208603</v>
       </c>
       <c r="L17" t="n">
         <v>310.0317663028048</v>
@@ -32250,10 +32250,10 @@
         <v>350.5520532346385</v>
       </c>
       <c r="O17" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835636</v>
       </c>
       <c r="P17" t="n">
-        <v>282.5148078136413</v>
+        <v>282.5148078136414</v>
       </c>
       <c r="Q17" t="n">
         <v>212.1568550501846</v>
@@ -32262,13 +32262,13 @@
         <v>123.4100593445721</v>
       </c>
       <c r="S17" t="n">
-        <v>44.76877762226235</v>
+        <v>44.76877762226236</v>
       </c>
       <c r="T17" t="n">
-        <v>8.600123929411007</v>
+        <v>8.600123929411009</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.051164356015528</v>
+        <v>1.051164356015529</v>
       </c>
       <c r="H18" t="n">
-        <v>10.15203470151839</v>
+        <v>10.1520347015184</v>
       </c>
       <c r="I18" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J18" t="n">
-        <v>99.31197979355483</v>
+        <v>99.31197979355485</v>
       </c>
       <c r="K18" t="n">
-        <v>169.7399916465952</v>
+        <v>169.7399916465953</v>
       </c>
       <c r="L18" t="n">
         <v>228.2363659848629</v>
       </c>
       <c r="M18" t="n">
-        <v>266.3410738904257</v>
+        <v>266.3410738904258</v>
       </c>
       <c r="N18" t="n">
         <v>273.3903295937054</v>
       </c>
       <c r="O18" t="n">
-        <v>250.0987404419928</v>
+        <v>250.0987404419929</v>
       </c>
       <c r="P18" t="n">
         <v>200.7262882991407</v>
@@ -32338,16 +32338,16 @@
         <v>134.1802079713857</v>
       </c>
       <c r="R18" t="n">
-        <v>65.26439747261327</v>
+        <v>65.26439747261328</v>
       </c>
       <c r="S18" t="n">
         <v>19.52491687599018</v>
       </c>
       <c r="T18" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939783</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06915554973786374</v>
+        <v>0.06915554973786375</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8812608851841429</v>
+        <v>0.8812608851841431</v>
       </c>
       <c r="H19" t="n">
-        <v>7.835210415546294</v>
+        <v>7.835210415546296</v>
       </c>
       <c r="I19" t="n">
         <v>26.50191825626496</v>
       </c>
       <c r="J19" t="n">
-        <v>62.3051445825189</v>
+        <v>62.30514458251891</v>
       </c>
       <c r="K19" t="n">
         <v>102.3864919332122</v>
@@ -32408,25 +32408,25 @@
         <v>134.8569498209517</v>
       </c>
       <c r="O19" t="n">
-        <v>124.5622203894823</v>
+        <v>124.5622203894824</v>
       </c>
       <c r="P19" t="n">
         <v>106.5844983317258</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028312</v>
       </c>
       <c r="R19" t="n">
-        <v>39.62469398291609</v>
+        <v>39.6246939829161</v>
       </c>
       <c r="S19" t="n">
         <v>15.35797378998183</v>
       </c>
       <c r="T19" t="n">
-        <v>3.765387418514064</v>
+        <v>3.765387418514065</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04806877555549876</v>
+        <v>0.04806877555549877</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,19 +32463,19 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H20" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I20" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797672</v>
       </c>
       <c r="J20" t="n">
         <v>166.7446643869441</v>
       </c>
       <c r="K20" t="n">
-        <v>249.9070278208602</v>
+        <v>249.9070278208603</v>
       </c>
       <c r="L20" t="n">
         <v>310.0317663028048</v>
@@ -32487,10 +32487,10 @@
         <v>350.5520532346385</v>
       </c>
       <c r="O20" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835636</v>
       </c>
       <c r="P20" t="n">
-        <v>282.5148078136413</v>
+        <v>282.5148078136414</v>
       </c>
       <c r="Q20" t="n">
         <v>212.1568550501846</v>
@@ -32499,13 +32499,13 @@
         <v>123.4100593445721</v>
       </c>
       <c r="S20" t="n">
-        <v>44.76877762226235</v>
+        <v>44.76877762226236</v>
       </c>
       <c r="T20" t="n">
-        <v>8.600123929411007</v>
+        <v>8.600123929411009</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.051164356015528</v>
+        <v>1.051164356015529</v>
       </c>
       <c r="H21" t="n">
-        <v>10.15203470151839</v>
+        <v>10.1520347015184</v>
       </c>
       <c r="I21" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J21" t="n">
-        <v>99.31197979355483</v>
+        <v>99.31197979355485</v>
       </c>
       <c r="K21" t="n">
-        <v>169.7399916465952</v>
+        <v>169.7399916465953</v>
       </c>
       <c r="L21" t="n">
         <v>228.2363659848629</v>
       </c>
       <c r="M21" t="n">
-        <v>266.3410738904257</v>
+        <v>266.3410738904258</v>
       </c>
       <c r="N21" t="n">
         <v>273.3903295937054</v>
       </c>
       <c r="O21" t="n">
-        <v>250.0987404419928</v>
+        <v>250.0987404419929</v>
       </c>
       <c r="P21" t="n">
         <v>200.7262882991407</v>
@@ -32575,16 +32575,16 @@
         <v>134.1802079713857</v>
       </c>
       <c r="R21" t="n">
-        <v>65.26439747261327</v>
+        <v>65.26439747261328</v>
       </c>
       <c r="S21" t="n">
         <v>19.52491687599018</v>
       </c>
       <c r="T21" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939783</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06915554973786374</v>
+        <v>0.06915554973786375</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8812608851841429</v>
+        <v>0.8812608851841431</v>
       </c>
       <c r="H22" t="n">
-        <v>7.835210415546294</v>
+        <v>7.835210415546296</v>
       </c>
       <c r="I22" t="n">
         <v>26.50191825626496</v>
       </c>
       <c r="J22" t="n">
-        <v>62.3051445825189</v>
+        <v>62.30514458251891</v>
       </c>
       <c r="K22" t="n">
         <v>102.3864919332122</v>
@@ -32645,25 +32645,25 @@
         <v>134.8569498209517</v>
       </c>
       <c r="O22" t="n">
-        <v>124.5622203894823</v>
+        <v>124.5622203894824</v>
       </c>
       <c r="P22" t="n">
         <v>106.5844983317258</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028312</v>
       </c>
       <c r="R22" t="n">
-        <v>39.62469398291609</v>
+        <v>39.6246939829161</v>
       </c>
       <c r="S22" t="n">
         <v>15.35797378998183</v>
       </c>
       <c r="T22" t="n">
-        <v>3.765387418514064</v>
+        <v>3.765387418514065</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04806877555549876</v>
+        <v>0.04806877555549877</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H23" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I23" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797673</v>
       </c>
       <c r="J23" t="n">
-        <v>166.7446643869441</v>
+        <v>166.7446643869442</v>
       </c>
       <c r="K23" t="n">
-        <v>249.9070278208602</v>
+        <v>249.9070278208603</v>
       </c>
       <c r="L23" t="n">
-        <v>310.0317663028048</v>
+        <v>310.031766302805</v>
       </c>
       <c r="M23" t="n">
-        <v>344.9700767379077</v>
+        <v>344.9700767379078</v>
       </c>
       <c r="N23" t="n">
-        <v>350.5520532346385</v>
+        <v>350.5520532346387</v>
       </c>
       <c r="O23" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835637</v>
       </c>
       <c r="P23" t="n">
-        <v>282.5148078136413</v>
+        <v>282.5148078136415</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.1568550501846</v>
+        <v>212.1568550501847</v>
       </c>
       <c r="R23" t="n">
-        <v>123.4100593445721</v>
+        <v>123.4100593445722</v>
       </c>
       <c r="S23" t="n">
-        <v>44.76877762226235</v>
+        <v>44.76877762226237</v>
       </c>
       <c r="T23" t="n">
-        <v>8.600123929411007</v>
+        <v>8.600123929411012</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.051164356015528</v>
+        <v>1.051164356015529</v>
       </c>
       <c r="H24" t="n">
-        <v>10.15203470151839</v>
+        <v>10.1520347015184</v>
       </c>
       <c r="I24" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J24" t="n">
-        <v>99.31197979355483</v>
+        <v>99.31197979355487</v>
       </c>
       <c r="K24" t="n">
-        <v>169.7399916465952</v>
+        <v>169.7399916465953</v>
       </c>
       <c r="L24" t="n">
-        <v>228.2363659848629</v>
+        <v>228.236365984863</v>
       </c>
       <c r="M24" t="n">
-        <v>266.3410738904257</v>
+        <v>266.3410738904258</v>
       </c>
       <c r="N24" t="n">
-        <v>273.3903295937054</v>
+        <v>273.3903295937055</v>
       </c>
       <c r="O24" t="n">
-        <v>250.0987404419928</v>
+        <v>250.098740441993</v>
       </c>
       <c r="P24" t="n">
-        <v>200.7262882991407</v>
+        <v>200.7262882991408</v>
       </c>
       <c r="Q24" t="n">
-        <v>134.1802079713857</v>
+        <v>134.1802079713858</v>
       </c>
       <c r="R24" t="n">
-        <v>65.26439747261327</v>
+        <v>65.2643974726133</v>
       </c>
       <c r="S24" t="n">
         <v>19.52491687599018</v>
       </c>
       <c r="T24" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939784</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06915554973786374</v>
+        <v>0.06915554973786377</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8812608851841429</v>
+        <v>0.8812608851841433</v>
       </c>
       <c r="H25" t="n">
-        <v>7.835210415546294</v>
+        <v>7.835210415546298</v>
       </c>
       <c r="I25" t="n">
-        <v>26.50191825626496</v>
+        <v>26.50191825626497</v>
       </c>
       <c r="J25" t="n">
-        <v>62.3051445825189</v>
+        <v>62.30514458251893</v>
       </c>
       <c r="K25" t="n">
-        <v>102.3864919332122</v>
+        <v>102.3864919332123</v>
       </c>
       <c r="L25" t="n">
-        <v>131.0194592391043</v>
+        <v>131.0194592391044</v>
       </c>
       <c r="M25" t="n">
         <v>138.1416494839107</v>
       </c>
       <c r="N25" t="n">
-        <v>134.8569498209517</v>
+        <v>134.8569498209518</v>
       </c>
       <c r="O25" t="n">
-        <v>124.5622203894823</v>
+        <v>124.5622203894824</v>
       </c>
       <c r="P25" t="n">
         <v>106.5844983317258</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028313</v>
       </c>
       <c r="R25" t="n">
-        <v>39.62469398291609</v>
+        <v>39.62469398291611</v>
       </c>
       <c r="S25" t="n">
-        <v>15.35797378998183</v>
+        <v>15.35797378998184</v>
       </c>
       <c r="T25" t="n">
-        <v>3.765387418514064</v>
+        <v>3.765387418514066</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04806877555549876</v>
+        <v>0.04806877555549878</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H26" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I26" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797673</v>
       </c>
       <c r="J26" t="n">
-        <v>166.7446643869441</v>
+        <v>166.7446643869442</v>
       </c>
       <c r="K26" t="n">
-        <v>249.9070278208602</v>
+        <v>249.9070278208603</v>
       </c>
       <c r="L26" t="n">
-        <v>310.0317663028048</v>
+        <v>310.031766302805</v>
       </c>
       <c r="M26" t="n">
-        <v>344.9700767379077</v>
+        <v>344.9700767379078</v>
       </c>
       <c r="N26" t="n">
-        <v>350.5520532346385</v>
+        <v>350.5520532346387</v>
       </c>
       <c r="O26" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835637</v>
       </c>
       <c r="P26" t="n">
-        <v>282.5148078136413</v>
+        <v>282.5148078136415</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.1568550501846</v>
+        <v>212.1568550501847</v>
       </c>
       <c r="R26" t="n">
-        <v>123.4100593445721</v>
+        <v>123.4100593445722</v>
       </c>
       <c r="S26" t="n">
-        <v>44.76877762226235</v>
+        <v>44.76877762226237</v>
       </c>
       <c r="T26" t="n">
-        <v>8.600123929411007</v>
+        <v>8.600123929411012</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.051164356015528</v>
+        <v>1.051164356015529</v>
       </c>
       <c r="H27" t="n">
-        <v>10.15203470151839</v>
+        <v>10.1520347015184</v>
       </c>
       <c r="I27" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J27" t="n">
-        <v>99.31197979355483</v>
+        <v>99.31197979355487</v>
       </c>
       <c r="K27" t="n">
-        <v>169.7399916465952</v>
+        <v>169.7399916465953</v>
       </c>
       <c r="L27" t="n">
-        <v>228.2363659848629</v>
+        <v>228.236365984863</v>
       </c>
       <c r="M27" t="n">
-        <v>266.3410738904257</v>
+        <v>266.3410738904258</v>
       </c>
       <c r="N27" t="n">
-        <v>273.3903295937054</v>
+        <v>273.3903295937055</v>
       </c>
       <c r="O27" t="n">
-        <v>250.0987404419928</v>
+        <v>250.098740441993</v>
       </c>
       <c r="P27" t="n">
-        <v>200.7262882991407</v>
+        <v>200.7262882991408</v>
       </c>
       <c r="Q27" t="n">
-        <v>134.1802079713857</v>
+        <v>134.1802079713858</v>
       </c>
       <c r="R27" t="n">
-        <v>65.26439747261327</v>
+        <v>65.2643974726133</v>
       </c>
       <c r="S27" t="n">
         <v>19.52491687599018</v>
       </c>
       <c r="T27" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939784</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06915554973786374</v>
+        <v>0.06915554973786377</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8812608851841429</v>
+        <v>0.8812608851841433</v>
       </c>
       <c r="H28" t="n">
-        <v>7.835210415546294</v>
+        <v>7.835210415546298</v>
       </c>
       <c r="I28" t="n">
-        <v>26.50191825626496</v>
+        <v>26.50191825626497</v>
       </c>
       <c r="J28" t="n">
-        <v>62.3051445825189</v>
+        <v>62.30514458251893</v>
       </c>
       <c r="K28" t="n">
-        <v>102.3864919332122</v>
+        <v>102.3864919332123</v>
       </c>
       <c r="L28" t="n">
-        <v>131.0194592391043</v>
+        <v>131.0194592391044</v>
       </c>
       <c r="M28" t="n">
         <v>138.1416494839107</v>
       </c>
       <c r="N28" t="n">
-        <v>134.8569498209517</v>
+        <v>134.8569498209518</v>
       </c>
       <c r="O28" t="n">
-        <v>124.5622203894823</v>
+        <v>124.5622203894824</v>
       </c>
       <c r="P28" t="n">
         <v>106.5844983317258</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028313</v>
       </c>
       <c r="R28" t="n">
-        <v>39.62469398291609</v>
+        <v>39.62469398291611</v>
       </c>
       <c r="S28" t="n">
-        <v>15.35797378998183</v>
+        <v>15.35797378998184</v>
       </c>
       <c r="T28" t="n">
-        <v>3.765387418514064</v>
+        <v>3.765387418514066</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04806877555549876</v>
+        <v>0.04806877555549878</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H29" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I29" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797673</v>
       </c>
       <c r="J29" t="n">
-        <v>166.7446643869441</v>
+        <v>166.7446643869442</v>
       </c>
       <c r="K29" t="n">
-        <v>249.9070278208602</v>
+        <v>249.9070278208603</v>
       </c>
       <c r="L29" t="n">
-        <v>310.0317663028048</v>
+        <v>310.031766302805</v>
       </c>
       <c r="M29" t="n">
-        <v>344.9700767379077</v>
+        <v>344.9700767379078</v>
       </c>
       <c r="N29" t="n">
-        <v>350.5520532346385</v>
+        <v>350.5520532346387</v>
       </c>
       <c r="O29" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835637</v>
       </c>
       <c r="P29" t="n">
-        <v>282.5148078136413</v>
+        <v>282.5148078136415</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.1568550501846</v>
+        <v>212.1568550501847</v>
       </c>
       <c r="R29" t="n">
-        <v>123.4100593445721</v>
+        <v>123.4100593445722</v>
       </c>
       <c r="S29" t="n">
-        <v>44.76877762226235</v>
+        <v>44.76877762226237</v>
       </c>
       <c r="T29" t="n">
-        <v>8.600123929411007</v>
+        <v>8.600123929411012</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.051164356015528</v>
+        <v>1.051164356015529</v>
       </c>
       <c r="H30" t="n">
-        <v>10.15203470151839</v>
+        <v>10.1520347015184</v>
       </c>
       <c r="I30" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J30" t="n">
-        <v>99.31197979355483</v>
+        <v>99.31197979355487</v>
       </c>
       <c r="K30" t="n">
-        <v>169.7399916465952</v>
+        <v>169.7399916465953</v>
       </c>
       <c r="L30" t="n">
-        <v>228.2363659848629</v>
+        <v>228.236365984863</v>
       </c>
       <c r="M30" t="n">
-        <v>266.3410738904257</v>
+        <v>266.3410738904258</v>
       </c>
       <c r="N30" t="n">
-        <v>273.3903295937054</v>
+        <v>273.3903295937055</v>
       </c>
       <c r="O30" t="n">
-        <v>250.0987404419928</v>
+        <v>250.098740441993</v>
       </c>
       <c r="P30" t="n">
-        <v>200.7262882991407</v>
+        <v>200.7262882991408</v>
       </c>
       <c r="Q30" t="n">
-        <v>134.1802079713857</v>
+        <v>134.1802079713858</v>
       </c>
       <c r="R30" t="n">
-        <v>65.26439747261327</v>
+        <v>65.2643974726133</v>
       </c>
       <c r="S30" t="n">
         <v>19.52491687599018</v>
       </c>
       <c r="T30" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939784</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06915554973786374</v>
+        <v>0.06915554973786377</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8812608851841429</v>
+        <v>0.8812608851841433</v>
       </c>
       <c r="H31" t="n">
-        <v>7.835210415546294</v>
+        <v>7.835210415546298</v>
       </c>
       <c r="I31" t="n">
-        <v>26.50191825626496</v>
+        <v>26.50191825626497</v>
       </c>
       <c r="J31" t="n">
-        <v>62.3051445825189</v>
+        <v>62.30514458251893</v>
       </c>
       <c r="K31" t="n">
-        <v>102.3864919332122</v>
+        <v>102.3864919332123</v>
       </c>
       <c r="L31" t="n">
-        <v>131.0194592391043</v>
+        <v>131.0194592391044</v>
       </c>
       <c r="M31" t="n">
         <v>138.1416494839107</v>
       </c>
       <c r="N31" t="n">
-        <v>134.8569498209517</v>
+        <v>134.8569498209518</v>
       </c>
       <c r="O31" t="n">
-        <v>124.5622203894823</v>
+        <v>124.5622203894824</v>
       </c>
       <c r="P31" t="n">
         <v>106.5844983317258</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028313</v>
       </c>
       <c r="R31" t="n">
-        <v>39.62469398291609</v>
+        <v>39.62469398291611</v>
       </c>
       <c r="S31" t="n">
-        <v>15.35797378998183</v>
+        <v>15.35797378998184</v>
       </c>
       <c r="T31" t="n">
-        <v>3.765387418514064</v>
+        <v>3.765387418514066</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04806877555549876</v>
+        <v>0.04806877555549878</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H32" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I32" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797673</v>
       </c>
       <c r="J32" t="n">
-        <v>166.7446643869441</v>
+        <v>166.7446643869442</v>
       </c>
       <c r="K32" t="n">
-        <v>249.9070278208602</v>
+        <v>249.9070278208603</v>
       </c>
       <c r="L32" t="n">
-        <v>310.0317663028048</v>
+        <v>310.031766302805</v>
       </c>
       <c r="M32" t="n">
-        <v>344.9700767379077</v>
+        <v>344.9700767379078</v>
       </c>
       <c r="N32" t="n">
-        <v>350.5520532346385</v>
+        <v>350.5520532346387</v>
       </c>
       <c r="O32" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835637</v>
       </c>
       <c r="P32" t="n">
-        <v>282.5148078136413</v>
+        <v>282.5148078136415</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.1568550501846</v>
+        <v>212.1568550501847</v>
       </c>
       <c r="R32" t="n">
-        <v>123.4100593445721</v>
+        <v>123.4100593445722</v>
       </c>
       <c r="S32" t="n">
-        <v>44.76877762226235</v>
+        <v>44.76877762226237</v>
       </c>
       <c r="T32" t="n">
-        <v>8.600123929411007</v>
+        <v>8.600123929411012</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.051164356015528</v>
+        <v>1.051164356015529</v>
       </c>
       <c r="H33" t="n">
-        <v>10.15203470151839</v>
+        <v>10.1520347015184</v>
       </c>
       <c r="I33" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J33" t="n">
-        <v>99.31197979355483</v>
+        <v>99.31197979355487</v>
       </c>
       <c r="K33" t="n">
-        <v>169.7399916465952</v>
+        <v>169.7399916465953</v>
       </c>
       <c r="L33" t="n">
-        <v>228.2363659848629</v>
+        <v>228.236365984863</v>
       </c>
       <c r="M33" t="n">
-        <v>266.3410738904257</v>
+        <v>266.3410738904258</v>
       </c>
       <c r="N33" t="n">
-        <v>273.3903295937054</v>
+        <v>273.3903295937055</v>
       </c>
       <c r="O33" t="n">
-        <v>250.0987404419928</v>
+        <v>250.098740441993</v>
       </c>
       <c r="P33" t="n">
-        <v>200.7262882991407</v>
+        <v>200.7262882991408</v>
       </c>
       <c r="Q33" t="n">
-        <v>134.1802079713857</v>
+        <v>134.1802079713858</v>
       </c>
       <c r="R33" t="n">
-        <v>65.26439747261327</v>
+        <v>65.2643974726133</v>
       </c>
       <c r="S33" t="n">
         <v>19.52491687599018</v>
       </c>
       <c r="T33" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939784</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06915554973786374</v>
+        <v>0.06915554973786377</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8812608851841429</v>
+        <v>0.8812608851841433</v>
       </c>
       <c r="H34" t="n">
-        <v>7.835210415546294</v>
+        <v>7.835210415546298</v>
       </c>
       <c r="I34" t="n">
-        <v>26.50191825626496</v>
+        <v>26.50191825626497</v>
       </c>
       <c r="J34" t="n">
-        <v>62.3051445825189</v>
+        <v>62.30514458251893</v>
       </c>
       <c r="K34" t="n">
-        <v>102.3864919332122</v>
+        <v>102.3864919332123</v>
       </c>
       <c r="L34" t="n">
-        <v>131.0194592391043</v>
+        <v>131.0194592391044</v>
       </c>
       <c r="M34" t="n">
         <v>138.1416494839107</v>
       </c>
       <c r="N34" t="n">
-        <v>134.8569498209517</v>
+        <v>134.8569498209518</v>
       </c>
       <c r="O34" t="n">
-        <v>124.5622203894823</v>
+        <v>124.5622203894824</v>
       </c>
       <c r="P34" t="n">
         <v>106.5844983317258</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028313</v>
       </c>
       <c r="R34" t="n">
-        <v>39.62469398291609</v>
+        <v>39.62469398291611</v>
       </c>
       <c r="S34" t="n">
-        <v>15.35797378998183</v>
+        <v>15.35797378998184</v>
       </c>
       <c r="T34" t="n">
-        <v>3.765387418514064</v>
+        <v>3.765387418514066</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04806877555549876</v>
+        <v>0.04806877555549878</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H35" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I35" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797673</v>
       </c>
       <c r="J35" t="n">
-        <v>166.7446643869441</v>
+        <v>166.7446643869442</v>
       </c>
       <c r="K35" t="n">
-        <v>249.9070278208602</v>
+        <v>249.9070278208603</v>
       </c>
       <c r="L35" t="n">
-        <v>310.0317663028048</v>
+        <v>310.031766302805</v>
       </c>
       <c r="M35" t="n">
-        <v>344.9700767379077</v>
+        <v>344.9700767379078</v>
       </c>
       <c r="N35" t="n">
-        <v>350.5520532346385</v>
+        <v>350.5520532346387</v>
       </c>
       <c r="O35" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835637</v>
       </c>
       <c r="P35" t="n">
-        <v>282.5148078136413</v>
+        <v>282.5148078136415</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.1568550501846</v>
+        <v>212.1568550501847</v>
       </c>
       <c r="R35" t="n">
-        <v>123.4100593445721</v>
+        <v>123.4100593445722</v>
       </c>
       <c r="S35" t="n">
-        <v>44.76877762226235</v>
+        <v>44.76877762226237</v>
       </c>
       <c r="T35" t="n">
-        <v>8.600123929411007</v>
+        <v>8.600123929411012</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.051164356015528</v>
+        <v>1.051164356015529</v>
       </c>
       <c r="H36" t="n">
-        <v>10.15203470151839</v>
+        <v>10.1520347015184</v>
       </c>
       <c r="I36" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J36" t="n">
-        <v>99.31197979355483</v>
+        <v>99.31197979355487</v>
       </c>
       <c r="K36" t="n">
-        <v>169.7399916465952</v>
+        <v>169.7399916465953</v>
       </c>
       <c r="L36" t="n">
-        <v>228.2363659848629</v>
+        <v>228.236365984863</v>
       </c>
       <c r="M36" t="n">
-        <v>266.3410738904257</v>
+        <v>266.3410738904258</v>
       </c>
       <c r="N36" t="n">
-        <v>273.3903295937054</v>
+        <v>273.3903295937055</v>
       </c>
       <c r="O36" t="n">
-        <v>250.0987404419928</v>
+        <v>250.098740441993</v>
       </c>
       <c r="P36" t="n">
-        <v>200.7262882991407</v>
+        <v>200.7262882991408</v>
       </c>
       <c r="Q36" t="n">
-        <v>134.1802079713857</v>
+        <v>134.1802079713858</v>
       </c>
       <c r="R36" t="n">
-        <v>65.26439747261327</v>
+        <v>65.2643974726133</v>
       </c>
       <c r="S36" t="n">
         <v>19.52491687599018</v>
       </c>
       <c r="T36" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939784</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06915554973786374</v>
+        <v>0.06915554973786377</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8812608851841429</v>
+        <v>0.8812608851841433</v>
       </c>
       <c r="H37" t="n">
-        <v>7.835210415546294</v>
+        <v>7.835210415546298</v>
       </c>
       <c r="I37" t="n">
-        <v>26.50191825626496</v>
+        <v>26.50191825626497</v>
       </c>
       <c r="J37" t="n">
-        <v>62.3051445825189</v>
+        <v>62.30514458251893</v>
       </c>
       <c r="K37" t="n">
-        <v>102.3864919332122</v>
+        <v>102.3864919332123</v>
       </c>
       <c r="L37" t="n">
-        <v>131.0194592391043</v>
+        <v>131.0194592391044</v>
       </c>
       <c r="M37" t="n">
         <v>138.1416494839107</v>
       </c>
       <c r="N37" t="n">
-        <v>134.8569498209517</v>
+        <v>134.8569498209518</v>
       </c>
       <c r="O37" t="n">
-        <v>124.5622203894823</v>
+        <v>124.5622203894824</v>
       </c>
       <c r="P37" t="n">
         <v>106.5844983317258</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028313</v>
       </c>
       <c r="R37" t="n">
-        <v>39.62469398291609</v>
+        <v>39.62469398291611</v>
       </c>
       <c r="S37" t="n">
-        <v>15.35797378998183</v>
+        <v>15.35797378998184</v>
       </c>
       <c r="T37" t="n">
-        <v>3.765387418514064</v>
+        <v>3.765387418514066</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04806877555549876</v>
+        <v>0.04806877555549878</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H38" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I38" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797673</v>
       </c>
       <c r="J38" t="n">
-        <v>166.7446643869441</v>
+        <v>166.7446643869442</v>
       </c>
       <c r="K38" t="n">
-        <v>249.9070278208602</v>
+        <v>249.9070278208603</v>
       </c>
       <c r="L38" t="n">
-        <v>310.0317663028048</v>
+        <v>310.031766302805</v>
       </c>
       <c r="M38" t="n">
-        <v>344.9700767379077</v>
+        <v>344.9700767379078</v>
       </c>
       <c r="N38" t="n">
-        <v>350.5520532346385</v>
+        <v>350.5520532346387</v>
       </c>
       <c r="O38" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835637</v>
       </c>
       <c r="P38" t="n">
-        <v>282.5148078136413</v>
+        <v>282.5148078136415</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.1568550501846</v>
+        <v>212.1568550501847</v>
       </c>
       <c r="R38" t="n">
-        <v>123.4100593445721</v>
+        <v>123.4100593445722</v>
       </c>
       <c r="S38" t="n">
-        <v>44.76877762226235</v>
+        <v>44.76877762226237</v>
       </c>
       <c r="T38" t="n">
-        <v>8.600123929411007</v>
+        <v>8.600123929411012</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.051164356015528</v>
+        <v>1.051164356015529</v>
       </c>
       <c r="H39" t="n">
-        <v>10.15203470151839</v>
+        <v>10.1520347015184</v>
       </c>
       <c r="I39" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J39" t="n">
-        <v>99.31197979355483</v>
+        <v>99.31197979355487</v>
       </c>
       <c r="K39" t="n">
-        <v>169.7399916465952</v>
+        <v>169.7399916465953</v>
       </c>
       <c r="L39" t="n">
-        <v>228.2363659848629</v>
+        <v>228.236365984863</v>
       </c>
       <c r="M39" t="n">
-        <v>266.3410738904257</v>
+        <v>266.3410738904258</v>
       </c>
       <c r="N39" t="n">
-        <v>273.3903295937054</v>
+        <v>273.3903295937055</v>
       </c>
       <c r="O39" t="n">
-        <v>250.0987404419928</v>
+        <v>250.098740441993</v>
       </c>
       <c r="P39" t="n">
-        <v>200.7262882991407</v>
+        <v>200.7262882991408</v>
       </c>
       <c r="Q39" t="n">
-        <v>134.1802079713857</v>
+        <v>134.1802079713858</v>
       </c>
       <c r="R39" t="n">
-        <v>65.26439747261327</v>
+        <v>65.2643974726133</v>
       </c>
       <c r="S39" t="n">
         <v>19.52491687599018</v>
       </c>
       <c r="T39" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939784</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06915554973786374</v>
+        <v>0.06915554973786377</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8812608851841429</v>
+        <v>0.8812608851841433</v>
       </c>
       <c r="H40" t="n">
-        <v>7.835210415546294</v>
+        <v>7.835210415546298</v>
       </c>
       <c r="I40" t="n">
-        <v>26.50191825626496</v>
+        <v>26.50191825626497</v>
       </c>
       <c r="J40" t="n">
-        <v>62.3051445825189</v>
+        <v>62.30514458251893</v>
       </c>
       <c r="K40" t="n">
-        <v>102.3864919332122</v>
+        <v>102.3864919332123</v>
       </c>
       <c r="L40" t="n">
-        <v>131.0194592391043</v>
+        <v>131.0194592391044</v>
       </c>
       <c r="M40" t="n">
         <v>138.1416494839107</v>
       </c>
       <c r="N40" t="n">
-        <v>134.8569498209517</v>
+        <v>134.8569498209518</v>
       </c>
       <c r="O40" t="n">
-        <v>124.5622203894823</v>
+        <v>124.5622203894824</v>
       </c>
       <c r="P40" t="n">
         <v>106.5844983317258</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028313</v>
       </c>
       <c r="R40" t="n">
-        <v>39.62469398291609</v>
+        <v>39.62469398291611</v>
       </c>
       <c r="S40" t="n">
-        <v>15.35797378998183</v>
+        <v>15.35797378998184</v>
       </c>
       <c r="T40" t="n">
-        <v>3.765387418514064</v>
+        <v>3.765387418514066</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04806877555549876</v>
+        <v>0.04806877555549878</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H41" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I41" t="n">
-        <v>75.74101148797669</v>
+        <v>75.74101148797673</v>
       </c>
       <c r="J41" t="n">
-        <v>166.7446643869441</v>
+        <v>166.7446643869442</v>
       </c>
       <c r="K41" t="n">
-        <v>249.9070278208602</v>
+        <v>249.9070278208604</v>
       </c>
       <c r="L41" t="n">
-        <v>310.0317663028048</v>
+        <v>310.031766302805</v>
       </c>
       <c r="M41" t="n">
-        <v>344.9700767379076</v>
+        <v>344.9700767379079</v>
       </c>
       <c r="N41" t="n">
-        <v>350.5520532346384</v>
+        <v>350.5520532346387</v>
       </c>
       <c r="O41" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835637</v>
       </c>
       <c r="P41" t="n">
-        <v>282.5148078136413</v>
+        <v>282.5148078136415</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.1568550501846</v>
+        <v>212.1568550501847</v>
       </c>
       <c r="R41" t="n">
-        <v>123.4100593445721</v>
+        <v>123.4100593445722</v>
       </c>
       <c r="S41" t="n">
-        <v>44.76877762226234</v>
+        <v>44.76877762226237</v>
       </c>
       <c r="T41" t="n">
-        <v>8.600123929411007</v>
+        <v>8.600123929411012</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.051164356015528</v>
+        <v>1.051164356015529</v>
       </c>
       <c r="H42" t="n">
-        <v>10.15203470151839</v>
+        <v>10.1520347015184</v>
       </c>
       <c r="I42" t="n">
-        <v>36.19140436281534</v>
+        <v>36.19140436281537</v>
       </c>
       <c r="J42" t="n">
-        <v>99.31197979355481</v>
+        <v>99.31197979355488</v>
       </c>
       <c r="K42" t="n">
-        <v>169.7399916465952</v>
+        <v>169.7399916465953</v>
       </c>
       <c r="L42" t="n">
-        <v>228.2363659848629</v>
+        <v>228.236365984863</v>
       </c>
       <c r="M42" t="n">
-        <v>266.3410738904257</v>
+        <v>266.3410738904259</v>
       </c>
       <c r="N42" t="n">
-        <v>273.3903295937053</v>
+        <v>273.3903295937055</v>
       </c>
       <c r="O42" t="n">
-        <v>250.0987404419928</v>
+        <v>250.098740441993</v>
       </c>
       <c r="P42" t="n">
-        <v>200.7262882991407</v>
+        <v>200.7262882991408</v>
       </c>
       <c r="Q42" t="n">
-        <v>134.1802079713857</v>
+        <v>134.1802079713858</v>
       </c>
       <c r="R42" t="n">
-        <v>65.26439747261327</v>
+        <v>65.26439747261331</v>
       </c>
       <c r="S42" t="n">
-        <v>19.52491687599017</v>
+        <v>19.52491687599019</v>
       </c>
       <c r="T42" t="n">
-        <v>4.236930013939781</v>
+        <v>4.236930013939785</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06915554973786373</v>
+        <v>0.06915554973786378</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8812608851841428</v>
+        <v>0.8812608851841434</v>
       </c>
       <c r="H43" t="n">
-        <v>7.835210415546293</v>
+        <v>7.835210415546299</v>
       </c>
       <c r="I43" t="n">
-        <v>26.50191825626496</v>
+        <v>26.50191825626498</v>
       </c>
       <c r="J43" t="n">
-        <v>62.30514458251889</v>
+        <v>62.30514458251893</v>
       </c>
       <c r="K43" t="n">
-        <v>102.3864919332122</v>
+        <v>102.3864919332123</v>
       </c>
       <c r="L43" t="n">
-        <v>131.0194592391043</v>
+        <v>131.0194592391044</v>
       </c>
       <c r="M43" t="n">
-        <v>138.1416494839107</v>
+        <v>138.1416494839108</v>
       </c>
       <c r="N43" t="n">
-        <v>134.8569498209517</v>
+        <v>134.8569498209518</v>
       </c>
       <c r="O43" t="n">
-        <v>124.5622203894823</v>
+        <v>124.5622203894824</v>
       </c>
       <c r="P43" t="n">
-        <v>106.5844983317257</v>
+        <v>106.5844983317258</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.79358194028309</v>
+        <v>73.79358194028315</v>
       </c>
       <c r="R43" t="n">
-        <v>39.62469398291609</v>
+        <v>39.62469398291611</v>
       </c>
       <c r="S43" t="n">
-        <v>15.35797378998183</v>
+        <v>15.35797378998184</v>
       </c>
       <c r="T43" t="n">
-        <v>3.765387418514064</v>
+        <v>3.765387418514067</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04806877555549875</v>
+        <v>0.04806877555549879</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H44" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I44" t="n">
-        <v>75.74101148797669</v>
+        <v>75.74101148797675</v>
       </c>
       <c r="J44" t="n">
-        <v>166.7446643869441</v>
+        <v>166.7446643869442</v>
       </c>
       <c r="K44" t="n">
-        <v>249.9070278208602</v>
+        <v>249.9070278208604</v>
       </c>
       <c r="L44" t="n">
-        <v>310.0317663028048</v>
+        <v>310.031766302805</v>
       </c>
       <c r="M44" t="n">
-        <v>344.9700767379076</v>
+        <v>344.9700767379079</v>
       </c>
       <c r="N44" t="n">
-        <v>350.5520532346384</v>
+        <v>350.5520532346387</v>
       </c>
       <c r="O44" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835637</v>
       </c>
       <c r="P44" t="n">
-        <v>282.5148078136413</v>
+        <v>282.5148078136415</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.1568550501846</v>
+        <v>212.1568550501847</v>
       </c>
       <c r="R44" t="n">
-        <v>123.4100593445727</v>
+        <v>123.4100593445722</v>
       </c>
       <c r="S44" t="n">
-        <v>44.76877762226234</v>
+        <v>44.76877762226237</v>
       </c>
       <c r="T44" t="n">
-        <v>8.600123929411007</v>
+        <v>8.600123929411012</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.051164356015528</v>
+        <v>1.051164356015529</v>
       </c>
       <c r="H45" t="n">
-        <v>10.15203470151839</v>
+        <v>10.1520347015184</v>
       </c>
       <c r="I45" t="n">
-        <v>36.19140436281534</v>
+        <v>36.19140436281537</v>
       </c>
       <c r="J45" t="n">
-        <v>99.31197979355481</v>
+        <v>99.31197979355488</v>
       </c>
       <c r="K45" t="n">
-        <v>169.7399916465952</v>
+        <v>169.7399916465953</v>
       </c>
       <c r="L45" t="n">
-        <v>228.2363659848629</v>
+        <v>228.236365984863</v>
       </c>
       <c r="M45" t="n">
-        <v>266.3410738904257</v>
+        <v>266.3410738904259</v>
       </c>
       <c r="N45" t="n">
-        <v>273.3903295937053</v>
+        <v>273.3903295937055</v>
       </c>
       <c r="O45" t="n">
-        <v>250.0987404419928</v>
+        <v>250.098740441993</v>
       </c>
       <c r="P45" t="n">
-        <v>200.7262882991407</v>
+        <v>200.7262882991408</v>
       </c>
       <c r="Q45" t="n">
-        <v>134.1802079713857</v>
+        <v>134.1802079713858</v>
       </c>
       <c r="R45" t="n">
-        <v>65.26439747261327</v>
+        <v>65.26439747261331</v>
       </c>
       <c r="S45" t="n">
-        <v>19.52491687599017</v>
+        <v>19.52491687599019</v>
       </c>
       <c r="T45" t="n">
-        <v>4.236930013939781</v>
+        <v>4.236930013939785</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06915554973786373</v>
+        <v>0.06915554973786378</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8812608851841428</v>
+        <v>0.8812608851841434</v>
       </c>
       <c r="H46" t="n">
-        <v>7.835210415546293</v>
+        <v>7.835210415546299</v>
       </c>
       <c r="I46" t="n">
-        <v>26.50191825626496</v>
+        <v>26.50191825626498</v>
       </c>
       <c r="J46" t="n">
-        <v>62.30514458251889</v>
+        <v>62.30514458251893</v>
       </c>
       <c r="K46" t="n">
-        <v>102.3864919332122</v>
+        <v>102.3864919332123</v>
       </c>
       <c r="L46" t="n">
-        <v>131.0194592391043</v>
+        <v>131.0194592391044</v>
       </c>
       <c r="M46" t="n">
-        <v>138.1416494839107</v>
+        <v>138.1416494839108</v>
       </c>
       <c r="N46" t="n">
-        <v>134.8569498209517</v>
+        <v>134.8569498209518</v>
       </c>
       <c r="O46" t="n">
-        <v>124.5622203894823</v>
+        <v>124.5622203894824</v>
       </c>
       <c r="P46" t="n">
-        <v>106.5844983317257</v>
+        <v>106.5844983317258</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.79358194028309</v>
+        <v>73.79358194028315</v>
       </c>
       <c r="R46" t="n">
-        <v>39.62469398291609</v>
+        <v>39.62469398291611</v>
       </c>
       <c r="S46" t="n">
-        <v>15.35797378998183</v>
+        <v>15.35797378998184</v>
       </c>
       <c r="T46" t="n">
-        <v>3.765387418514064</v>
+        <v>3.765387418514067</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04806877555549875</v>
+        <v>0.04806877555549879</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>78.70086546022149</v>
       </c>
       <c r="K12" t="n">
-        <v>147.3407578132619</v>
+        <v>432.5719622323052</v>
       </c>
       <c r="L12" t="n">
         <v>205.7212792706333</v>
@@ -35506,7 +35506,7 @@
         <v>226.9268507197706</v>
       </c>
       <c r="P12" t="n">
-        <v>464.1866515133553</v>
+        <v>178.955447094312</v>
       </c>
       <c r="Q12" t="n">
         <v>111.4331696824072</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>120.3771932937896</v>
+        <v>41.66838859861703</v>
       </c>
       <c r="K13" t="n">
         <v>81.42183748050022</v>
       </c>
       <c r="L13" t="n">
-        <v>489.2915009506405</v>
+        <v>304.5873021169818</v>
       </c>
       <c r="M13" t="n">
-        <v>115.5662095924249</v>
+        <v>527.3683654126321</v>
       </c>
       <c r="N13" t="n">
-        <v>195.7327777939735</v>
+        <v>516.1615062613919</v>
       </c>
       <c r="O13" t="n">
         <v>483.5805321872228</v>
       </c>
       <c r="P13" t="n">
-        <v>400.1190558285954</v>
+        <v>84.20369767373927</v>
       </c>
       <c r="Q13" t="n">
-        <v>202.0765417794366</v>
+        <v>49.17401917549816</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401322</v>
       </c>
       <c r="J14" t="n">
         <v>137.3247049013576</v>
@@ -35652,25 +35652,25 @@
         <v>214.1424270260509</v>
       </c>
       <c r="L14" t="n">
-        <v>271.7197238701818</v>
+        <v>271.7197238701819</v>
       </c>
       <c r="M14" t="n">
-        <v>307.5388138384758</v>
+        <v>307.5388138384759</v>
       </c>
       <c r="N14" t="n">
         <v>313.2724304001925</v>
       </c>
       <c r="O14" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275395</v>
       </c>
       <c r="P14" t="n">
-        <v>244.93944600341</v>
+        <v>244.9394460034101</v>
       </c>
       <c r="Q14" t="n">
         <v>176.0321804455866</v>
       </c>
       <c r="R14" t="n">
-        <v>88.37740944977563</v>
+        <v>88.37740944977566</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>20.01901761281535</v>
       </c>
       <c r="J15" t="n">
-        <v>78.70086546022149</v>
+        <v>78.70086546022152</v>
       </c>
       <c r="K15" t="n">
-        <v>432.5719622323052</v>
+        <v>432.5719622323049</v>
       </c>
       <c r="L15" t="n">
-        <v>205.7212792706333</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M15" t="n">
         <v>243.2442933780978</v>
       </c>
       <c r="N15" t="n">
-        <v>252.0473013801637</v>
+        <v>252.0473013801638</v>
       </c>
       <c r="O15" t="n">
-        <v>226.9268507197706</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P15" t="n">
-        <v>178.955447094312</v>
+        <v>178.9554470943121</v>
       </c>
       <c r="Q15" t="n">
         <v>111.4331696824072</v>
       </c>
       <c r="R15" t="n">
-        <v>41.59147807846912</v>
+        <v>41.59147807846914</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>120.3771932937896</v>
+        <v>41.66838859861704</v>
       </c>
       <c r="K16" t="n">
-        <v>81.42183748050022</v>
+        <v>81.42183748050024</v>
       </c>
       <c r="L16" t="n">
-        <v>109.1006993434031</v>
+        <v>304.5873021169818</v>
       </c>
       <c r="M16" t="n">
         <v>527.3683654126321</v>
       </c>
       <c r="N16" t="n">
-        <v>164.1214235810036</v>
+        <v>516.1615062613919</v>
       </c>
       <c r="O16" t="n">
         <v>483.5805321872228</v>
       </c>
       <c r="P16" t="n">
-        <v>400.1190558285954</v>
+        <v>84.20369767373928</v>
       </c>
       <c r="Q16" t="n">
-        <v>202.0765417794366</v>
+        <v>49.17401917549817</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401322</v>
       </c>
       <c r="J17" t="n">
         <v>137.3247049013576</v>
@@ -35889,25 +35889,25 @@
         <v>214.1424270260509</v>
       </c>
       <c r="L17" t="n">
-        <v>271.7197238701818</v>
+        <v>271.7197238701819</v>
       </c>
       <c r="M17" t="n">
-        <v>307.5388138384758</v>
+        <v>307.5388138384759</v>
       </c>
       <c r="N17" t="n">
         <v>313.2724304001925</v>
       </c>
       <c r="O17" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275395</v>
       </c>
       <c r="P17" t="n">
-        <v>244.93944600341</v>
+        <v>244.9394460034101</v>
       </c>
       <c r="Q17" t="n">
         <v>176.0321804455866</v>
       </c>
       <c r="R17" t="n">
-        <v>88.37740944977563</v>
+        <v>88.37740944977566</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>43.71326594050407</v>
+        <v>43.71326594050409</v>
       </c>
       <c r="J18" t="n">
-        <v>78.70086546022149</v>
+        <v>233.7171141930848</v>
       </c>
       <c r="K18" t="n">
         <v>147.3407578132619</v>
       </c>
       <c r="L18" t="n">
-        <v>205.7212792706333</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M18" t="n">
         <v>243.2442933780978</v>
       </c>
       <c r="N18" t="n">
-        <v>252.0473013801637</v>
+        <v>252.0473013801638</v>
       </c>
       <c r="O18" t="n">
-        <v>226.9268507197706</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P18" t="n">
-        <v>333.9716958271758</v>
+        <v>178.9554470943121</v>
       </c>
       <c r="Q18" t="n">
         <v>111.4331696824072</v>
       </c>
       <c r="R18" t="n">
-        <v>148.1121854369598</v>
+        <v>148.1121854369599</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>120.3771932937896</v>
       </c>
       <c r="K19" t="n">
-        <v>81.42183748050022</v>
+        <v>315.9490890330616</v>
       </c>
       <c r="L19" t="n">
-        <v>109.1006993434031</v>
+        <v>489.2915009506405</v>
       </c>
       <c r="M19" t="n">
-        <v>527.3683654126321</v>
+        <v>115.5662095924249</v>
       </c>
       <c r="N19" t="n">
-        <v>516.1615062613919</v>
+        <v>114.1080488453513</v>
       </c>
       <c r="O19" t="n">
-        <v>447.4558076616907</v>
+        <v>483.5805321872228</v>
       </c>
       <c r="P19" t="n">
-        <v>84.20369767373927</v>
+        <v>400.1190558285955</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.0765417794366</v>
+        <v>49.17401917549817</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401322</v>
       </c>
       <c r="J20" t="n">
         <v>137.3247049013576</v>
@@ -36126,25 +36126,25 @@
         <v>214.1424270260509</v>
       </c>
       <c r="L20" t="n">
-        <v>271.7197238701818</v>
+        <v>271.7197238701819</v>
       </c>
       <c r="M20" t="n">
-        <v>307.5388138384758</v>
+        <v>307.5388138384759</v>
       </c>
       <c r="N20" t="n">
         <v>313.2724304001925</v>
       </c>
       <c r="O20" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275395</v>
       </c>
       <c r="P20" t="n">
-        <v>244.93944600341</v>
+        <v>244.9394460034101</v>
       </c>
       <c r="Q20" t="n">
         <v>176.0321804455866</v>
       </c>
       <c r="R20" t="n">
-        <v>88.37740944977563</v>
+        <v>88.37740944977566</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.01901761281535</v>
+        <v>43.71326594050409</v>
       </c>
       <c r="J21" t="n">
-        <v>78.70086546022149</v>
+        <v>340.2378215515758</v>
       </c>
       <c r="K21" t="n">
         <v>147.3407578132619</v>
       </c>
       <c r="L21" t="n">
-        <v>205.7212792706333</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M21" t="n">
-        <v>527.3683654126321</v>
+        <v>243.2442933780978</v>
       </c>
       <c r="N21" t="n">
-        <v>253.1544337646725</v>
+        <v>252.0473013801638</v>
       </c>
       <c r="O21" t="n">
-        <v>226.9268507197706</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P21" t="n">
-        <v>178.955447094312</v>
+        <v>178.9554470943121</v>
       </c>
       <c r="Q21" t="n">
         <v>111.4331696824072</v>
       </c>
       <c r="R21" t="n">
-        <v>41.59147807846912</v>
+        <v>41.59147807846914</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>120.3771932937896</v>
+        <v>41.66838859861704</v>
       </c>
       <c r="K22" t="n">
-        <v>81.42183748050022</v>
+        <v>331.2022507269872</v>
       </c>
       <c r="L22" t="n">
         <v>489.2915009506405</v>
       </c>
       <c r="M22" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="N22" t="n">
         <v>114.1080488453513</v>
       </c>
       <c r="O22" t="n">
-        <v>306.3056279195765</v>
+        <v>135.2340193682623</v>
       </c>
       <c r="P22" t="n">
-        <v>400.1190558285954</v>
+        <v>400.1190558285955</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.17401917549816</v>
+        <v>49.17401917549817</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401323</v>
       </c>
       <c r="J23" t="n">
         <v>137.3247049013576</v>
       </c>
       <c r="K23" t="n">
-        <v>214.1424270260509</v>
+        <v>214.142427026051</v>
       </c>
       <c r="L23" t="n">
-        <v>271.7197238701818</v>
+        <v>271.719723870182</v>
       </c>
       <c r="M23" t="n">
-        <v>307.5388138384758</v>
+        <v>307.538813838476</v>
       </c>
       <c r="N23" t="n">
-        <v>313.2724304001925</v>
+        <v>313.2724304001927</v>
       </c>
       <c r="O23" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275396</v>
       </c>
       <c r="P23" t="n">
-        <v>244.93944600341</v>
+        <v>244.9394460034102</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.0321804455866</v>
+        <v>176.0321804455867</v>
       </c>
       <c r="R23" t="n">
-        <v>88.37740944977563</v>
+        <v>88.37740944977568</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.01901761281535</v>
+        <v>43.71326594050409</v>
       </c>
       <c r="J24" t="n">
-        <v>78.70086546022149</v>
+        <v>78.70086546022154</v>
       </c>
       <c r="K24" t="n">
-        <v>147.3407578132619</v>
+        <v>147.340757813262</v>
       </c>
       <c r="L24" t="n">
-        <v>205.7212792706333</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M24" t="n">
-        <v>243.2442933780978</v>
+        <v>243.2442933780979</v>
       </c>
       <c r="N24" t="n">
-        <v>252.0473013801637</v>
+        <v>252.0473013801638</v>
       </c>
       <c r="O24" t="n">
-        <v>226.9268507197706</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P24" t="n">
-        <v>178.955447094312</v>
+        <v>178.9554470943121</v>
       </c>
       <c r="Q24" t="n">
-        <v>396.6643741014506</v>
+        <v>372.9701257737609</v>
       </c>
       <c r="R24" t="n">
-        <v>41.59147807846912</v>
+        <v>41.59147807846915</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>41.66838859861703</v>
+        <v>41.66838859861706</v>
       </c>
       <c r="K25" t="n">
-        <v>331.2022507269871</v>
+        <v>331.2022507269872</v>
       </c>
       <c r="L25" t="n">
         <v>489.2915009506405</v>
       </c>
       <c r="M25" t="n">
-        <v>407.6368292858978</v>
+        <v>527.3683654126322</v>
       </c>
       <c r="N25" t="n">
-        <v>114.1080488453513</v>
+        <v>114.1080488453514</v>
       </c>
       <c r="O25" t="n">
-        <v>102.0630328910579</v>
+        <v>102.063032891058</v>
       </c>
       <c r="P25" t="n">
-        <v>400.1190558285954</v>
+        <v>400.1190558285955</v>
       </c>
       <c r="Q25" t="n">
-        <v>202.0765417794366</v>
+        <v>82.34500565270243</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401323</v>
       </c>
       <c r="J26" t="n">
-        <v>137.3247049013576</v>
+        <v>137.3247049013569</v>
       </c>
       <c r="K26" t="n">
-        <v>214.1424270260509</v>
+        <v>214.142427026051</v>
       </c>
       <c r="L26" t="n">
-        <v>271.7197238701818</v>
+        <v>271.719723870182</v>
       </c>
       <c r="M26" t="n">
-        <v>307.5388138384758</v>
+        <v>307.538813838476</v>
       </c>
       <c r="N26" t="n">
-        <v>313.2724304001925</v>
+        <v>313.2724304001927</v>
       </c>
       <c r="O26" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275396</v>
       </c>
       <c r="P26" t="n">
-        <v>244.93944600341</v>
+        <v>244.9394460034102</v>
       </c>
       <c r="Q26" t="n">
-        <v>176.0321804455866</v>
+        <v>176.0321804455867</v>
       </c>
       <c r="R26" t="n">
-        <v>88.37740944977563</v>
+        <v>88.37740944977568</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.01901761281535</v>
+        <v>43.71326594050409</v>
       </c>
       <c r="J27" t="n">
-        <v>78.70086546022149</v>
+        <v>233.7171141930843</v>
       </c>
       <c r="K27" t="n">
-        <v>147.3407578132619</v>
+        <v>147.340757813262</v>
       </c>
       <c r="L27" t="n">
-        <v>205.7212792706333</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M27" t="n">
-        <v>243.2442933780978</v>
+        <v>243.2442933780979</v>
       </c>
       <c r="N27" t="n">
-        <v>252.0473013801637</v>
+        <v>252.0473013801638</v>
       </c>
       <c r="O27" t="n">
-        <v>226.9268507197706</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P27" t="n">
-        <v>178.955447094312</v>
+        <v>178.9554470943121</v>
       </c>
       <c r="Q27" t="n">
-        <v>290.1436667429598</v>
+        <v>111.4331696824073</v>
       </c>
       <c r="R27" t="n">
-        <v>148.1121854369598</v>
+        <v>148.1121854369599</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,25 +36755,25 @@
         <v>120.3771932937896</v>
       </c>
       <c r="K28" t="n">
-        <v>81.42183748050022</v>
+        <v>81.42183748050027</v>
       </c>
       <c r="L28" t="n">
-        <v>109.1006993434031</v>
+        <v>225.8784974218094</v>
       </c>
       <c r="M28" t="n">
-        <v>527.368365412632</v>
+        <v>527.3683654126322</v>
       </c>
       <c r="N28" t="n">
-        <v>164.1214235810032</v>
+        <v>516.161506261392</v>
       </c>
       <c r="O28" t="n">
         <v>483.5805321872228</v>
       </c>
       <c r="P28" t="n">
-        <v>400.1190558285954</v>
+        <v>84.20369767373931</v>
       </c>
       <c r="Q28" t="n">
-        <v>202.0765417794366</v>
+        <v>49.17401917549819</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401323</v>
       </c>
       <c r="J29" t="n">
         <v>137.3247049013576</v>
       </c>
       <c r="K29" t="n">
-        <v>214.1424270260509</v>
+        <v>214.142427026051</v>
       </c>
       <c r="L29" t="n">
-        <v>271.7197238701818</v>
+        <v>271.719723870182</v>
       </c>
       <c r="M29" t="n">
-        <v>307.5388138384758</v>
+        <v>307.538813838476</v>
       </c>
       <c r="N29" t="n">
-        <v>313.2724304001925</v>
+        <v>313.2724304001927</v>
       </c>
       <c r="O29" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275396</v>
       </c>
       <c r="P29" t="n">
-        <v>244.93944600341</v>
+        <v>244.9394460034102</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.0321804455866</v>
+        <v>176.0321804455867</v>
       </c>
       <c r="R29" t="n">
-        <v>88.37740944977563</v>
+        <v>88.37740944977568</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.01901761281535</v>
+        <v>43.71326594050409</v>
       </c>
       <c r="J30" t="n">
-        <v>78.70086546022149</v>
+        <v>233.7171141930842</v>
       </c>
       <c r="K30" t="n">
-        <v>147.3407578132619</v>
+        <v>147.340757813262</v>
       </c>
       <c r="L30" t="n">
-        <v>205.7212792706333</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M30" t="n">
-        <v>243.2442933780978</v>
+        <v>243.2442933780979</v>
       </c>
       <c r="N30" t="n">
-        <v>252.0473013801637</v>
+        <v>252.0473013801638</v>
       </c>
       <c r="O30" t="n">
-        <v>512.1580551388137</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P30" t="n">
-        <v>178.955447094312</v>
+        <v>178.9554470943121</v>
       </c>
       <c r="Q30" t="n">
-        <v>111.4331696824072</v>
+        <v>111.4331696824073</v>
       </c>
       <c r="R30" t="n">
-        <v>41.59147807846912</v>
+        <v>148.1121854369599</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>120.3771932937896</v>
       </c>
       <c r="K31" t="n">
-        <v>81.42183748050022</v>
+        <v>331.2022507269872</v>
       </c>
       <c r="L31" t="n">
-        <v>109.1006993434031</v>
+        <v>290.8511601287339</v>
       </c>
       <c r="M31" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="N31" t="n">
-        <v>516.1615062613919</v>
+        <v>114.1080488453514</v>
       </c>
       <c r="O31" t="n">
-        <v>447.4558076616907</v>
+        <v>102.063032891058</v>
       </c>
       <c r="P31" t="n">
-        <v>84.20369767373927</v>
+        <v>400.1190558285955</v>
       </c>
       <c r="Q31" t="n">
         <v>202.0765417794366</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401323</v>
       </c>
       <c r="J32" t="n">
         <v>137.3247049013576</v>
       </c>
       <c r="K32" t="n">
-        <v>214.1424270260509</v>
+        <v>214.142427026051</v>
       </c>
       <c r="L32" t="n">
-        <v>271.7197238701818</v>
+        <v>271.719723870182</v>
       </c>
       <c r="M32" t="n">
-        <v>307.5388138384758</v>
+        <v>307.538813838476</v>
       </c>
       <c r="N32" t="n">
-        <v>313.2724304001925</v>
+        <v>313.2724304001927</v>
       </c>
       <c r="O32" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275396</v>
       </c>
       <c r="P32" t="n">
-        <v>244.93944600341</v>
+        <v>244.9394460034102</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.0321804455866</v>
+        <v>176.0321804455867</v>
       </c>
       <c r="R32" t="n">
-        <v>88.37740944977563</v>
+        <v>88.37740944977568</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>29.92915799939017</v>
+        <v>43.71326594050409</v>
       </c>
       <c r="J33" t="n">
-        <v>78.70086546022149</v>
+        <v>233.7171141930843</v>
       </c>
       <c r="K33" t="n">
-        <v>147.3407578132619</v>
+        <v>147.340757813262</v>
       </c>
       <c r="L33" t="n">
-        <v>205.7212792706333</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M33" t="n">
-        <v>243.2442933780978</v>
+        <v>243.2442933780979</v>
       </c>
       <c r="N33" t="n">
-        <v>527.3683654126321</v>
+        <v>252.0473013801638</v>
       </c>
       <c r="O33" t="n">
-        <v>226.9268507197706</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P33" t="n">
-        <v>178.955447094312</v>
+        <v>178.9554470943121</v>
       </c>
       <c r="Q33" t="n">
-        <v>111.4331696824072</v>
+        <v>111.4331696824073</v>
       </c>
       <c r="R33" t="n">
-        <v>41.59147807846912</v>
+        <v>148.1121854369599</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>120.3771932937896</v>
+        <v>41.66838859861706</v>
       </c>
       <c r="K34" t="n">
-        <v>331.2022507269871</v>
+        <v>81.42183748050027</v>
       </c>
       <c r="L34" t="n">
-        <v>489.2915009506405</v>
+        <v>304.587302116982</v>
       </c>
       <c r="M34" t="n">
-        <v>115.5662095924249</v>
+        <v>527.3683654126322</v>
       </c>
       <c r="N34" t="n">
-        <v>414.770245306281</v>
+        <v>516.161506261392</v>
       </c>
       <c r="O34" t="n">
         <v>483.5805321872228</v>
       </c>
       <c r="P34" t="n">
-        <v>84.20369767373927</v>
+        <v>84.20369767373931</v>
       </c>
       <c r="Q34" t="n">
-        <v>49.17401917549816</v>
+        <v>49.17401917549819</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401323</v>
       </c>
       <c r="J35" t="n">
         <v>137.3247049013576</v>
       </c>
       <c r="K35" t="n">
-        <v>214.1424270260509</v>
+        <v>214.142427026051</v>
       </c>
       <c r="L35" t="n">
-        <v>271.7197238701818</v>
+        <v>271.719723870182</v>
       </c>
       <c r="M35" t="n">
-        <v>307.5388138384758</v>
+        <v>307.538813838476</v>
       </c>
       <c r="N35" t="n">
-        <v>313.2724304001925</v>
+        <v>313.2724304001927</v>
       </c>
       <c r="O35" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275396</v>
       </c>
       <c r="P35" t="n">
-        <v>244.93944600341</v>
+        <v>244.9394460034102</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.0321804455866</v>
+        <v>176.0321804455867</v>
       </c>
       <c r="R35" t="n">
-        <v>88.37740944977563</v>
+        <v>88.37740944977568</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.01901761281535</v>
+        <v>43.71326594050409</v>
       </c>
       <c r="J36" t="n">
-        <v>78.70086546022149</v>
+        <v>233.7171141930842</v>
       </c>
       <c r="K36" t="n">
-        <v>147.3407578132619</v>
+        <v>147.340757813262</v>
       </c>
       <c r="L36" t="n">
-        <v>205.7212792706333</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M36" t="n">
-        <v>243.2442933780978</v>
+        <v>243.2442933780979</v>
       </c>
       <c r="N36" t="n">
-        <v>430.7577984407165</v>
+        <v>252.0473013801638</v>
       </c>
       <c r="O36" t="n">
-        <v>226.9268507197706</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P36" t="n">
-        <v>178.955447094312</v>
+        <v>178.9554470943121</v>
       </c>
       <c r="Q36" t="n">
-        <v>111.4331696824072</v>
+        <v>111.4331696824073</v>
       </c>
       <c r="R36" t="n">
-        <v>148.1121854369598</v>
+        <v>148.1121854369599</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>120.3771932937896</v>
+        <v>41.66838859861706</v>
       </c>
       <c r="K37" t="n">
-        <v>331.2022507269871</v>
+        <v>81.42183748050027</v>
       </c>
       <c r="L37" t="n">
-        <v>204.713060867549</v>
+        <v>304.5873021169824</v>
       </c>
       <c r="M37" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="N37" t="n">
-        <v>516.1615062613919</v>
+        <v>516.161506261392</v>
       </c>
       <c r="O37" t="n">
-        <v>102.0630328910579</v>
+        <v>483.5805321872228</v>
       </c>
       <c r="P37" t="n">
-        <v>84.20369767373927</v>
+        <v>84.20369767373931</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.0765417794366</v>
+        <v>49.17401917549819</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401323</v>
       </c>
       <c r="J38" t="n">
         <v>137.3247049013576</v>
       </c>
       <c r="K38" t="n">
-        <v>214.1424270260509</v>
+        <v>214.142427026051</v>
       </c>
       <c r="L38" t="n">
-        <v>271.7197238701818</v>
+        <v>271.719723870182</v>
       </c>
       <c r="M38" t="n">
-        <v>307.5388138384758</v>
+        <v>307.538813838476</v>
       </c>
       <c r="N38" t="n">
-        <v>313.2724304001925</v>
+        <v>313.2724304001927</v>
       </c>
       <c r="O38" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275396</v>
       </c>
       <c r="P38" t="n">
-        <v>244.93944600341</v>
+        <v>244.9394460034102</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.0321804455866</v>
+        <v>176.0321804455867</v>
       </c>
       <c r="R38" t="n">
-        <v>88.37740944977563</v>
+        <v>88.37740944977568</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>43.71326594050407</v>
+        <v>43.71326594050409</v>
       </c>
       <c r="J39" t="n">
-        <v>78.70086546022149</v>
+        <v>233.7171141930842</v>
       </c>
       <c r="K39" t="n">
-        <v>147.3407578132619</v>
+        <v>147.340757813262</v>
       </c>
       <c r="L39" t="n">
-        <v>205.7212792706333</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M39" t="n">
-        <v>243.2442933780978</v>
+        <v>243.2442933780979</v>
       </c>
       <c r="N39" t="n">
-        <v>252.0473013801637</v>
+        <v>252.0473013801638</v>
       </c>
       <c r="O39" t="n">
-        <v>381.9430994526344</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P39" t="n">
-        <v>178.955447094312</v>
+        <v>178.9554470943121</v>
       </c>
       <c r="Q39" t="n">
-        <v>111.4331696824072</v>
+        <v>111.4331696824073</v>
       </c>
       <c r="R39" t="n">
-        <v>148.1121854369598</v>
+        <v>148.1121854369599</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>120.3771932937896</v>
+        <v>41.66838859861706</v>
       </c>
       <c r="K40" t="n">
-        <v>331.2022507269871</v>
+        <v>81.42183748050027</v>
       </c>
       <c r="L40" t="n">
-        <v>109.1006993434031</v>
+        <v>304.5873021169824</v>
       </c>
       <c r="M40" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="N40" t="n">
-        <v>114.1080488453513</v>
+        <v>516.161506261392</v>
       </c>
       <c r="O40" t="n">
         <v>483.5805321872228</v>
       </c>
       <c r="P40" t="n">
-        <v>200.3520173177608</v>
+        <v>84.20369767373931</v>
       </c>
       <c r="Q40" t="n">
-        <v>202.0765417794366</v>
+        <v>49.17401917549819</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.19310894401319</v>
+        <v>41.19310894401323</v>
       </c>
       <c r="J41" t="n">
-        <v>137.3247049013575</v>
+        <v>137.3247049013576</v>
       </c>
       <c r="K41" t="n">
-        <v>214.1424270260509</v>
+        <v>214.1424270260511</v>
       </c>
       <c r="L41" t="n">
-        <v>271.7197238701818</v>
+        <v>271.719723870182</v>
       </c>
       <c r="M41" t="n">
-        <v>307.5388138384758</v>
+        <v>307.5388138384761</v>
       </c>
       <c r="N41" t="n">
-        <v>313.2724304001924</v>
+        <v>313.2724304001927</v>
       </c>
       <c r="O41" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275396</v>
       </c>
       <c r="P41" t="n">
-        <v>244.93944600341</v>
+        <v>244.9394460034102</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.0321804455865</v>
+        <v>176.0321804455867</v>
       </c>
       <c r="R41" t="n">
-        <v>88.37740944977563</v>
+        <v>88.37740944977571</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.01901761281534</v>
+        <v>43.7132659405041</v>
       </c>
       <c r="J42" t="n">
-        <v>78.70086546022148</v>
+        <v>233.7171141930841</v>
       </c>
       <c r="K42" t="n">
-        <v>147.3407578132619</v>
+        <v>147.340757813262</v>
       </c>
       <c r="L42" t="n">
-        <v>384.4317763311861</v>
+        <v>205.7212792706335</v>
       </c>
       <c r="M42" t="n">
-        <v>243.2442933780978</v>
+        <v>243.2442933780979</v>
       </c>
       <c r="N42" t="n">
-        <v>252.0473013801636</v>
+        <v>252.0473013801639</v>
       </c>
       <c r="O42" t="n">
-        <v>226.9268507197706</v>
+        <v>226.9268507197708</v>
       </c>
       <c r="P42" t="n">
-        <v>178.955447094312</v>
+        <v>178.9554470943121</v>
       </c>
       <c r="Q42" t="n">
-        <v>111.4331696824072</v>
+        <v>111.4331696824073</v>
       </c>
       <c r="R42" t="n">
-        <v>148.1121854369598</v>
+        <v>148.1121854369599</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>120.3771932937896</v>
+        <v>41.66838859861707</v>
       </c>
       <c r="K43" t="n">
-        <v>331.2022507269871</v>
+        <v>81.42183748050027</v>
       </c>
       <c r="L43" t="n">
-        <v>109.1006993434031</v>
+        <v>304.5873021169826</v>
       </c>
       <c r="M43" t="n">
-        <v>115.5662095924249</v>
+        <v>527.3683654126324</v>
       </c>
       <c r="N43" t="n">
-        <v>516.1615062613919</v>
+        <v>516.161506261392</v>
       </c>
       <c r="O43" t="n">
-        <v>483.5805321872228</v>
+        <v>483.5805321872229</v>
       </c>
       <c r="P43" t="n">
-        <v>210.1007157219278</v>
+        <v>84.20369767373933</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.0765417794366</v>
+        <v>49.1740191754982</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.19310894401319</v>
+        <v>41.19310894401325</v>
       </c>
       <c r="J44" t="n">
-        <v>137.3247049013575</v>
+        <v>137.3247049013576</v>
       </c>
       <c r="K44" t="n">
-        <v>214.1424270260509</v>
+        <v>214.1424270260511</v>
       </c>
       <c r="L44" t="n">
-        <v>271.7197238701818</v>
+        <v>271.719723870182</v>
       </c>
       <c r="M44" t="n">
-        <v>307.5388138384758</v>
+        <v>307.5388138384761</v>
       </c>
       <c r="N44" t="n">
-        <v>313.2724304001924</v>
+        <v>313.2724304001927</v>
       </c>
       <c r="O44" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275396</v>
       </c>
       <c r="P44" t="n">
-        <v>244.93944600341</v>
+        <v>244.9394460034102</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.0321804455865</v>
+        <v>176.0321804455867</v>
       </c>
       <c r="R44" t="n">
-        <v>88.37740944977622</v>
+        <v>88.37740944977571</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.01901761281534</v>
+        <v>43.7132659405041</v>
       </c>
       <c r="J45" t="n">
-        <v>78.70086546022148</v>
+        <v>233.7171141930841</v>
       </c>
       <c r="K45" t="n">
-        <v>147.3407578132619</v>
+        <v>147.340757813262</v>
       </c>
       <c r="L45" t="n">
-        <v>205.7212792706333</v>
+        <v>205.7212792706335</v>
       </c>
       <c r="M45" t="n">
-        <v>243.2442933780978</v>
+        <v>243.2442933780979</v>
       </c>
       <c r="N45" t="n">
-        <v>252.0473013801636</v>
+        <v>252.0473013801639</v>
       </c>
       <c r="O45" t="n">
-        <v>512.158055138814</v>
+        <v>226.9268507197708</v>
       </c>
       <c r="P45" t="n">
-        <v>178.955447094312</v>
+        <v>178.9554470943121</v>
       </c>
       <c r="Q45" t="n">
-        <v>111.4331696824072</v>
+        <v>111.4331696824073</v>
       </c>
       <c r="R45" t="n">
-        <v>41.59147807846912</v>
+        <v>148.1121854369599</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>120.3771932937896</v>
+        <v>41.66838859861707</v>
       </c>
       <c r="K46" t="n">
-        <v>81.4218374805002</v>
+        <v>81.42183748050027</v>
       </c>
       <c r="L46" t="n">
-        <v>489.2915009506404</v>
+        <v>304.5873021169826</v>
       </c>
       <c r="M46" t="n">
-        <v>513.1062966959034</v>
+        <v>527.3683654126324</v>
       </c>
       <c r="N46" t="n">
-        <v>114.1080488453513</v>
+        <v>516.161506261392</v>
       </c>
       <c r="O46" t="n">
-        <v>483.5805321872228</v>
+        <v>483.5805321872229</v>
       </c>
       <c r="P46" t="n">
-        <v>84.20369767373926</v>
+        <v>84.20369767373933</v>
       </c>
       <c r="Q46" t="n">
-        <v>202.0765417794366</v>
+        <v>49.1740191754982</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
